--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remacle.Max\Documents\ERM\1Ma\DS425\project\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06480A8C-03C7-4227-83B8-341FF75364A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F98C01F-A375-40F2-8797-F080A25B9734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAF5D83-5F9A-451D-AF9D-F669C897DA23}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remacle.Max\Documents\ERM\1Ma\DS425\project\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F98C01F-A375-40F2-8797-F080A25B9734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3191DD58-83A6-4FBD-89F9-67313B87C452}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAF5D83-5F9A-451D-AF9D-F669C897DA23}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remacle.Max\Documents\ERM\1Ma\DS425\project\ExamTimetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\ERM\1Ma\DS425_E\Practicals_work\Projects\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3191DD58-83A6-4FBD-89F9-67313B87C452}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5D1B60-0FE7-45C7-8FBD-FE230B6A9B1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAF5D83-5F9A-451D-AF9D-F669C897DA23}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>BHK=pilot</t>
+  </si>
+  <si>
+    <t>BHK=navy</t>
   </si>
 </sst>
 </file>
@@ -155,14 +167,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A04D88-210D-4F76-9832-3D7C7F78A672}" name="Tableau1" displayName="Tableau1" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{271BE314-FB4C-4F83-A88F-2378D6CD0FE6}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A04D88-210D-4F76-9832-3D7C7F78A672}" name="Tableau1" displayName="Tableau1" ref="A1:J7" totalsRowShown="0">
+  <autoFilter ref="A1:J7" xr:uid="{271BE314-FB4C-4F83-A88F-2378D6CD0FE6}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4367A2A3-B526-4DFE-BBC0-E782C81177FE}" name="Name"/>
     <tableColumn id="2" xr3:uid="{905D431B-0F73-4320-B39E-29B4879E1E48}" name="Unavailability"/>
     <tableColumn id="3" xr3:uid="{B220EB76-B6B6-4904-9913-D70A0987ACC0}" name="Amount days"/>
     <tableColumn id="4" xr3:uid="{114D82F1-6DDA-417B-B75E-E81CD5F3914E}" name="preparation days"/>
     <tableColumn id="5" xr3:uid="{C78B1ED7-71E3-42F8-B8B2-26D15C6C67E1}" name="oral/written"/>
+    <tableColumn id="9" xr3:uid="{722D798A-9990-433B-A7B4-97C9CCB42EE8}" name="Promotions"/>
+    <tableColumn id="10" xr3:uid="{F37C444E-0C69-4ADB-BE4C-545730041000}" name="Groups"/>
     <tableColumn id="6" xr3:uid="{72DED2BE-4ABF-4220-A9E6-515EA9546078}" name="start date"/>
     <tableColumn id="7" xr3:uid="{C10AF50F-4281-4999-BEDB-DB655313C33E}" name="final date"/>
     <tableColumn id="8" xr3:uid="{59FE2777-4DBF-4D6E-8670-51DFDC352952}" name="is weekend ok?"/>
@@ -468,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C068238-1761-435B-986C-4B74602C0523}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,11 +493,12 @@
     <col min="2" max="2" width="22.21875" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="5" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,16 +515,22 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -525,20 +546,26 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
+        <v>172</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3">
         <v>44346</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="3">
         <v>44367</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -554,14 +581,17 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3">
+        <v>172</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -577,14 +607,20 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4">
+        <v>172</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -600,14 +636,17 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F5">
+        <v>172</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -623,11 +662,14 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6">
+        <v>172</v>
+      </c>
+      <c r="J6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -643,17 +685,20 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7">
+        <v>172</v>
+      </c>
+      <c r="J7" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{DAF3A89F-B13B-4156-9188-B9D9D7164842}">
-      <formula1>$I$4:$I$5</formula1>
+      <formula1>$K$4:$K$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{F0015C6C-071C-44EB-B78C-BF7A2D05BAE2}">
-      <formula1>$I$2:$I$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7" xr:uid="{F0015C6C-071C-44EB-B78C-BF7A2D05BAE2}">
+      <formula1>$K$2:$K$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\ERM\1Ma\DS425_E\Practicals_work\Projects\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5D1B60-0FE7-45C7-8FBD-FE230B6A9B1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F8940-DB29-4F04-9A10-8639412C2604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAF5D83-5F9A-451D-AF9D-F669C897DA23}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\ERM\1Ma\DS425_E\Practicals_work\Projects\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F8940-DB29-4F04-9A10-8639412C2604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2177FEB7-AEEF-4532-8442-36B0F4F91C12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAF5D83-5F9A-451D-AF9D-F669C897DA23}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\ERM\1Ma\DS425_E\Practicals_work\Projects\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2177FEB7-AEEF-4532-8442-36B0F4F91C12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C684EF06-A48A-4323-8618-F2BB12EFE521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAF5D83-5F9A-451D-AF9D-F669C897DA23}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>BHK=navy</t>
+  </si>
+  <si>
+    <t>Close to</t>
   </si>
 </sst>
 </file>
@@ -167,9 +170,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A04D88-210D-4F76-9832-3D7C7F78A672}" name="Tableau1" displayName="Tableau1" ref="A1:J7" totalsRowShown="0">
-  <autoFilter ref="A1:J7" xr:uid="{271BE314-FB4C-4F83-A88F-2378D6CD0FE6}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A04D88-210D-4F76-9832-3D7C7F78A672}" name="Tableau1" displayName="Tableau1" ref="A1:K7" totalsRowShown="0">
+  <autoFilter ref="A1:K7" xr:uid="{271BE314-FB4C-4F83-A88F-2378D6CD0FE6}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4367A2A3-B526-4DFE-BBC0-E782C81177FE}" name="Name"/>
     <tableColumn id="2" xr3:uid="{905D431B-0F73-4320-B39E-29B4879E1E48}" name="Unavailability"/>
     <tableColumn id="3" xr3:uid="{B220EB76-B6B6-4904-9913-D70A0987ACC0}" name="Amount days"/>
@@ -179,6 +182,7 @@
     <tableColumn id="10" xr3:uid="{F37C444E-0C69-4ADB-BE4C-545730041000}" name="Groups"/>
     <tableColumn id="6" xr3:uid="{72DED2BE-4ABF-4220-A9E6-515EA9546078}" name="start date"/>
     <tableColumn id="7" xr3:uid="{C10AF50F-4281-4999-BEDB-DB655313C33E}" name="final date"/>
+    <tableColumn id="12" xr3:uid="{0984FC58-BD90-4877-9089-A4CD196595DD}" name="Close to"/>
     <tableColumn id="8" xr3:uid="{59FE2777-4DBF-4D6E-8670-51DFDC352952}" name="is weekend ok?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -482,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C068238-1761-435B-986C-4B74602C0523}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,10 +499,10 @@
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,10 +531,13 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -558,14 +565,17 @@
       <c r="I2" s="3">
         <v>44367</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -584,14 +594,14 @@
       <c r="F3">
         <v>172</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -613,14 +623,14 @@
       <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -639,14 +649,14 @@
       <c r="F5">
         <v>172</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -665,11 +675,11 @@
       <c r="F6">
         <v>172</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -688,17 +698,17 @@
       <c r="F7">
         <v>172</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{DAF3A89F-B13B-4156-9188-B9D9D7164842}">
-      <formula1>$K$4:$K$5</formula1>
+      <formula1>$L$4:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7" xr:uid="{F0015C6C-071C-44EB-B78C-BF7A2D05BAE2}">
-      <formula1>$K$2:$K$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7" xr:uid="{F0015C6C-071C-44EB-B78C-BF7A2D05BAE2}">
+      <formula1>$L$2:$L$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\ERM\1Ma\DS425_E\Practicals_work\Projects\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C684EF06-A48A-4323-8618-F2BB12EFE521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1175A4A1-9C8C-4872-9B5D-2BC3E52655D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAF5D83-5F9A-451D-AF9D-F669C897DA23}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -100,16 +100,25 @@
     <t>Promotions</t>
   </si>
   <si>
-    <t>Groups</t>
-  </si>
-  <si>
     <t>BHK=pilot</t>
   </si>
   <si>
     <t>BHK=navy</t>
   </si>
   <si>
-    <t>Close to</t>
+    <t>Student groups</t>
+  </si>
+  <si>
+    <t>Course group</t>
+  </si>
+  <si>
+    <t>SE422_written</t>
+  </si>
+  <si>
+    <t>SE422_oral_1</t>
+  </si>
+  <si>
+    <t>SE422_oral_2</t>
   </si>
 </sst>
 </file>
@@ -170,8 +179,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A04D88-210D-4F76-9832-3D7C7F78A672}" name="Tableau1" displayName="Tableau1" ref="A1:K7" totalsRowShown="0">
-  <autoFilter ref="A1:K7" xr:uid="{271BE314-FB4C-4F83-A88F-2378D6CD0FE6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{20A04D88-210D-4F76-9832-3D7C7F78A672}" name="Tableau1" displayName="Tableau1" ref="A1:K9" totalsRowShown="0">
+  <autoFilter ref="A1:K9" xr:uid="{271BE314-FB4C-4F83-A88F-2378D6CD0FE6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4367A2A3-B526-4DFE-BBC0-E782C81177FE}" name="Name"/>
     <tableColumn id="2" xr3:uid="{905D431B-0F73-4320-B39E-29B4879E1E48}" name="Unavailability"/>
@@ -179,10 +188,10 @@
     <tableColumn id="4" xr3:uid="{114D82F1-6DDA-417B-B75E-E81CD5F3914E}" name="preparation days"/>
     <tableColumn id="5" xr3:uid="{C78B1ED7-71E3-42F8-B8B2-26D15C6C67E1}" name="oral/written"/>
     <tableColumn id="9" xr3:uid="{722D798A-9990-433B-A7B4-97C9CCB42EE8}" name="Promotions"/>
-    <tableColumn id="10" xr3:uid="{F37C444E-0C69-4ADB-BE4C-545730041000}" name="Groups"/>
+    <tableColumn id="10" xr3:uid="{F37C444E-0C69-4ADB-BE4C-545730041000}" name="Student groups"/>
     <tableColumn id="6" xr3:uid="{72DED2BE-4ABF-4220-A9E6-515EA9546078}" name="start date"/>
     <tableColumn id="7" xr3:uid="{C10AF50F-4281-4999-BEDB-DB655313C33E}" name="final date"/>
-    <tableColumn id="12" xr3:uid="{0984FC58-BD90-4877-9089-A4CD196595DD}" name="Close to"/>
+    <tableColumn id="12" xr3:uid="{0984FC58-BD90-4877-9089-A4CD196595DD}" name="Course group"/>
     <tableColumn id="8" xr3:uid="{59FE2777-4DBF-4D6E-8670-51DFDC352952}" name="is weekend ok?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -486,19 +495,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C068238-1761-435B-986C-4B74602C0523}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.21875" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="7" width="15.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,7 +534,7 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -557,7 +569,7 @@
         <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3">
         <v>44346</v>
@@ -565,9 +577,7 @@
       <c r="I2" s="3">
         <v>44367</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" t="s">
         <v>21</v>
       </c>
@@ -577,13 +587,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -594,6 +604,9 @@
       <c r="F3">
         <v>172</v>
       </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
@@ -603,16 +616,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -620,8 +633,8 @@
       <c r="F4">
         <v>172</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
+      <c r="J4" t="s">
+        <v>4</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -632,23 +645,26 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>172</v>
       </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
@@ -658,19 +674,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>172</v>
@@ -681,19 +697,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>172</v>
@@ -702,12 +718,61 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>172</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>172</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{DAF3A89F-B13B-4156-9188-B9D9D7164842}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{DAF3A89F-B13B-4156-9188-B9D9D7164842}">
       <formula1>$L$4:$L$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7" xr:uid="{F0015C6C-071C-44EB-B78C-BF7A2D05BAE2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K9" xr:uid="{F0015C6C-071C-44EB-B78C-BF7A2D05BAE2}">
       <formula1>$L$2:$L$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="sputnik"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simplex\Documents\ERM\1Ma\sem2\DS425_E\ProjetHoraireExam\ExamTimetable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B7673B-7E14-4006-96CA-7F8D6F65019C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="23252" windowHeight="12579" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="172 POL" sheetId="1" r:id="rId4"/>
-    <sheet name="157 SSMW" sheetId="2" r:id="rId5"/>
+    <sheet name="Calendrier" sheetId="3" r:id="rId1"/>
+    <sheet name="172 POL" sheetId="1" r:id="rId2"/>
+    <sheet name="157 SSMW" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1617780873" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -144,161 +150,237 @@
   </si>
   <si>
     <t>Soirée Coaster</t>
+  </si>
+  <si>
+    <t>Date de départ</t>
+  </si>
+  <si>
+    <t>Date de fin</t>
+  </si>
+  <si>
+    <t>Lundi</t>
+  </si>
+  <si>
+    <t>Mardi</t>
+  </si>
+  <si>
+    <t>Mercredi</t>
+  </si>
+  <si>
+    <t>Jeudi</t>
+  </si>
+  <si>
+    <t>Vendredi</t>
+  </si>
+  <si>
+    <t>Samedi</t>
+  </si>
+  <si>
+    <t>Dimanche</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Semaine</t>
+  </si>
+  <si>
+    <t>Fini</t>
+  </si>
+  <si>
+    <t>16-&gt;20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="20" formatCode="h:mm"/>
-    <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="h:mm"/>
+    <numFmt numFmtId="173" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617780873" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617780873" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1617780873" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1617780873" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617780873"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617780873"/>
-        </ext>
-      </extLst>
+      <diagonal/>
     </border>
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="none">
-        <color rgb="FF000000"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="none">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617780873"/>
-        </ext>
-      </extLst>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="1" hidden="1"/>
+      <protection hidden="1"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1617780873" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
@@ -309,40 +391,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:K9" totalsRowShown="0">
-  <autoFilter ref="A1:K9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:K9" totalsRowShown="0">
+  <autoFilter ref="A1:K9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Unavailability"/>
-    <tableColumn id="3" name="Amount days"/>
-    <tableColumn id="4" name="preparation days"/>
-    <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotions"/>
-    <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="start date"/>
-    <tableColumn id="9" name="final date"/>
-    <tableColumn id="10" name="Course group"/>
-    <tableColumn id="11" name="is weekend ok?" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unavailability"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Promotions"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="start date"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="final date"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Course group"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="is weekend ok?" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0">
-  <autoFilter ref="A1:K8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0">
+  <autoFilter ref="A1:K8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Unavailability"/>
-    <tableColumn id="3" name="Amount days"/>
-    <tableColumn id="4" name="preparation days"/>
-    <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotions"/>
-    <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="start date"/>
-    <tableColumn id="9" name="final date"/>
-    <tableColumn id="10" name="Course group"/>
-    <tableColumn id="11" name="is weekend ok?" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Unavailability"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Promotions"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="start date"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="final date"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Course group"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="is weekend ok?" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -602,28 +684,839 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{01093FD6-0D36-4E14-86F1-F2645AEF4BCF}">
+  <we:reference id="wa104199815" version="1.0.0.1" store="fr-FR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104199815" version="1.0.0.1" store="WA104199815" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D614FA-B147-4A65-938C-968B7A19BED2}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.633929" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.776786" customWidth="1"/>
-    <col min="2" max="2" width="16.419643" customWidth="1"/>
-    <col min="3" max="3" width="5.848214" customWidth="1"/>
-    <col min="4" max="4" width="22.330357" customWidth="1"/>
-    <col min="5" max="6" width="15.330357" customWidth="1"/>
-    <col min="7" max="7" width="17.883929" customWidth="1"/>
-    <col min="8" max="8" width="11.214286" customWidth="1"/>
-    <col min="10" max="10" width="14.330357" customWidth="1"/>
-    <col min="11" max="11" width="23.330357" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="11" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="4"/>
+      <c r="C1">
+        <f>WEEKDAY(B1,2)</f>
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C2">
+        <f>WEEKDAY(B2,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>IF($C$2=1,$B$2,"")</f>
+        <v/>
+      </c>
+      <c r="H2" s="5">
+        <f>IF($C$2=2,$B$2,IF(G2="","",IF(G2=$B$3,"",G2+1)))</f>
+        <v>44348</v>
+      </c>
+      <c r="I2" s="5">
+        <f>IF($C$2=3,$B$2,IF(H2="","",IF(H2=$B$3,"",H2+1)))</f>
+        <v>44349</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IF($C$2=4,$B$2,IF(I2="","",IF(I2=$B$3,"",I2+1)))</f>
+        <v>44350</v>
+      </c>
+      <c r="K2" s="5">
+        <f>IF($C$2=5,$B$2,IF(J2="","",IF(J2=$B$3,"",J2+1)))</f>
+        <v>44351</v>
+      </c>
+      <c r="L2" s="5">
+        <f>IF($C$2=6,$B$2,IF(K2="","",IF(K2=$B$3,"",K2+1)))</f>
+        <v>44352</v>
+      </c>
+      <c r="M2" s="5">
+        <f>IF($C$2=7,$B$2,IF(L2="","",IF(L2=$B$3,"",L2+1)))</f>
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44369</v>
+      </c>
+      <c r="C3">
+        <f>WEEKDAY(B3,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" t="str">
+        <f>IF(B3-B2&lt;0,"ERREUR","")</f>
+        <v/>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IF(M2="","",IF(M2=$B$3,"",M2+1))</f>
+        <v>44354</v>
+      </c>
+      <c r="H4" s="5">
+        <f>IF(G4="","",IF(G4=$B$3,"",G4+1))</f>
+        <v>44355</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:M48" si="0">IF(H4="","",IF(H4=$B$3,"",H4+1))</f>
+        <v>44356</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>44357</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>44358</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="0"/>
+        <v>44359</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="O5" s="11" t="str">
+        <f>C6</f>
+        <v/>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6" t="str">
+        <f>C7&amp;C8&amp;C9&amp;C10&amp;C11&amp;C12&amp;C13&amp;C14&amp;C15&amp;C16&amp;C17&amp;C18&amp;C19&amp;C20&amp;C21&amp;C22&amp;C23&amp;C24&amp;C25&amp;C26&amp;C27&amp;C28&amp;C29&amp;C30&amp;C31&amp;C32&amp;C33&amp;C34&amp;C35&amp;C36&amp;C37&amp;C38&amp;C39&amp;C40&amp;C41&amp;C42&amp;C43&amp;C44&amp;C45&amp;C46&amp;C47&amp;C48&amp;C49&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62</f>
+        <v/>
+      </c>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <f>IF(M4="","",IF(M4=$B$3,"",M4+1))</f>
+        <v>44361</v>
+      </c>
+      <c r="H6" s="5">
+        <f>IF(G6="","",IF(G6=$B$3,"",G6+1))</f>
+        <v>44362</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>44363</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>44364</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>44365</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>44366</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>44367</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="C7" t="str">
+        <f>IF(G$3="v",DAY(G$2)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8" t="str">
+        <f>IF(H$3="v",DAY(H$2)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <f>IF(M6="","",IF(M6=$B$3,"",M6+1))</f>
+        <v>44368</v>
+      </c>
+      <c r="H8" s="5">
+        <f>IF(G8="","",IF(G8=$B$3,"",G8+1))</f>
+        <v>44369</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" t="str">
+        <f>IF(I$3="v",DAY(I$2)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" t="str">
+        <f>IF(J$3="v",DAY(J$2)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="F10" s="12">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f>IF(M8="","",IF(M8=$B$3,"",M8+1))</f>
+        <v/>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>IF(G10="","",IF(G10=$B$3,"",G10+1))</f>
+        <v/>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" t="str">
+        <f>IF(K$3="v",DAY(K$2)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" t="str">
+        <f>IF(L$3="v",DAY(L$2)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="F12" s="12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f>IF(M10="","",IF(M10=$B$3,"",M10+1))</f>
+        <v/>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>IF(G12="","",IF(G12=$B$3,"",G12+1))</f>
+        <v/>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" t="str">
+        <f>IF(M$3="v",DAY(M$2)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" t="str">
+        <f>IF(G$5="v",DAY(G$4)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="F14" s="12">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f>IF(M12="","",IF(M12=$B$3,"",M12+1))</f>
+        <v/>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>IF(G14="","",IF(G14=$B$3,"",G14+1))</f>
+        <v/>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" t="str">
+        <f>IF(H$5="v",DAY(H$4)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" t="str">
+        <f>IF(I$5="v",DAY(I$4)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="F16" s="12">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f>IF(M14="","",IF(M14=$B$3,"",M14+1))</f>
+        <v/>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>IF(G16="","",IF(G16=$B$3,"",G16+1))</f>
+        <v/>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" t="str">
+        <f>IF(J$5="v",DAY(J$4)&amp;";","")</f>
+        <v/>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18" t="str">
+        <f>IF(K$5="v",DAY(K$4)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19" t="str">
+        <f>IF(L$5="v",DAY(L$4)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20" t="str">
+        <f>IF(M$5="v",DAY(M$4)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C21" t="str">
+        <f>IF(G$7="v",DAY(G$6)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C22" t="str">
+        <f>IF(H$7="v",DAY(H$6)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C23" t="str">
+        <f>IF(I$7="v",DAY(I$6)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C24" t="str">
+        <f>IF(J$7="v",DAY(J$6)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C25" t="str">
+        <f>IF(K$7="v",DAY(K$6)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C26" t="str">
+        <f>IF(L$7="v",DAY(L$6)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C27" t="str">
+        <f>IF(M$7="v",DAY(M$6)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C28" t="str">
+        <f>IF(G$9="v",DAY(G$8)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C29" t="str">
+        <f>IF(H$9="v",DAY(H$8)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C30" t="str">
+        <f>IF(I$9="v",DAY(I$8)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" t="str">
+        <f>IF(J$9="v",DAY(J$8)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C32" t="str">
+        <f>IF(K$9="v",DAY(K$8)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="str">
+        <f>IF(L$9="v",DAY(L$8)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="str">
+        <f>IF(M$9="v",DAY(M$8)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="str">
+        <f>IF(G$11="v",DAY(G$10)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="str">
+        <f>IF(H$11="v",DAY(H$10)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="str">
+        <f>IF(I$11="v",DAY(I$10)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="str">
+        <f>IF(J$11="v",DAY(J$10)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="str">
+        <f>IF(K$11="v",DAY(K$10)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="str">
+        <f>IF(L$11="v",DAY(L$10)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="str">
+        <f>IF(M$11="v",DAY(M$10)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="str">
+        <f>IF(G$13="v",DAY(G$12)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="str">
+        <f>IF(H$13="v",DAY(H$12)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="str">
+        <f>IF(I$13="v",DAY(I$12)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="str">
+        <f>IF(J$13="v",DAY(J$12)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="str">
+        <f>IF(K$13="v",DAY(K$12)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="str">
+        <f>IF(L$13="v",DAY(L$12)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" t="str">
+        <f>IF(M$13="v",DAY(M$12)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="str">
+        <f>IF(G$15="v",DAY(G$14)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" t="str">
+        <f>IF(H$15="v",DAY(H$14)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="str">
+        <f>IF(I$15="v",DAY(I$14)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="str">
+        <f>IF(J$15="v",DAY(J$14)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="str">
+        <f>IF(K$15="v",DAY(K$14)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="str">
+        <f>IF(L$15="v",DAY(L$14)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="str">
+        <f>IF(M$15="v",DAY(M$14)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" t="str">
+        <f>IF(G$17="v",DAY(G$16)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" t="str">
+        <f>IF(H$17="v",DAY(H$16)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" t="str">
+        <f>IF(I$17="v",DAY(I$16)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" t="str">
+        <f>IF(J$17="v",DAY(J$16)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" t="str">
+        <f>IF(K$17="v",DAY(K$16)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" t="str">
+        <f>IF(L$17="v",DAY(L$16)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" t="str">
+        <f>IF(M$17="v",DAY(M$16)&amp;";","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="9">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G2:M17">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="v">
+      <formula>NOT(ISERROR(SEARCH("v",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:M3 G5:M5 G7:M7 G9:M9 G11:M11 G13:M13 G15:M15 G17:M17 G19:M19 G21:M21 G23:M23 G25:M25 G27:M27 G29:M29 G31:M31 G33:M33 G35:M35 G37:M37 G39:M39 G41:M41 G43:M43 G45:M45 G47:M47 G49:M49" xr:uid="{0BAD278C-CC8D-4549-BB09-51078F0E677E}">
+      <formula1>$C$4:$C$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,32 +1551,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>172</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>44346</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>44367</v>
       </c>
       <c r="J2" s="3"/>
@@ -691,23 +1584,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>172</v>
       </c>
       <c r="J3" t="s">
@@ -717,23 +1610,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>172</v>
       </c>
       <c r="J4" t="s">
@@ -743,23 +1636,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>172</v>
       </c>
       <c r="G5" t="s">
@@ -769,92 +1662,92 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>172</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>172</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>172</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>172</v>
       </c>
       <c r="J9" t="s">
@@ -864,52 +1757,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2:E9" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$37:$A$38</formula1>
     </dataValidation>
-    <dataValidation sqref="K2:K9" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$A$35:$A$36</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617780873" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617780873" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617780873" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -924,23 +1802,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N1:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.633929" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.991071" customWidth="1"/>
-    <col min="2" max="2" width="16.562500" customWidth="1"/>
-    <col min="3" max="3" width="15.169643" customWidth="1"/>
-    <col min="4" max="4" width="15.553571" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,56 +1856,57 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>157</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>44346</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>44367</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>30</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>157</v>
       </c>
       <c r="G3" t="s">
@@ -1034,23 +1916,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>157</v>
       </c>
       <c r="G4" t="s">
@@ -1060,23 +1942,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>157</v>
       </c>
       <c r="G5" t="s">
@@ -1086,121 +1968,106 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>157</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>157</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>157</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2:E8" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$31:$A$32</formula1>
     </dataValidation>
-    <dataValidation sqref="K2:K8" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K8" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$A$29:$A$30</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617780873" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617780873" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617780873" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -5,20 +5,29 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simplex\Documents\ERM\1Ma\sem2\DS425_E\ProjetHoraireExam\ExamTimetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laris\OneDrive\Documents\ERM\1Ma2Sem\DS425 - (6) AI Decision support\PROJECT1\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B7673B-7E14-4006-96CA-7F8D6F65019C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1B81DB-7E38-46AB-AED3-975D1B5BCE4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendrier" sheetId="3" r:id="rId1"/>
     <sheet name="172 POL" sheetId="1" r:id="rId2"/>
     <sheet name="157 SSMW" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1617780873" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
       <pm:docPrefs xmlns:pm="smNativeData" id="1617780873" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
@@ -199,8 +208,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="h:mm"/>
-    <numFmt numFmtId="173" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="h:mm"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -326,11 +335,11 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -338,30 +347,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -709,7 +711,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -764,7 +766,7 @@
         <f>WEEKDAY(B2,2)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="13">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="str">
@@ -807,7 +809,7 @@
         <f>WEEKDAY(B3,2)</f>
         <v>2</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -824,7 +826,7 @@
       <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>2</v>
       </c>
       <c r="G4" s="5">
@@ -836,7 +838,7 @@
         <v>44355</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:M48" si="0">IF(H4="","",IF(H4=$B$3,"",H4+1))</f>
+        <f t="shared" ref="I4:M16" si="0">IF(H4="","",IF(H4=$B$3,"",H4+1))</f>
         <v>44356</v>
       </c>
       <c r="J4" s="5">
@@ -860,27 +862,27 @@
       <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="O5" s="11" t="str">
+      <c r="O5" s="14" t="str">
         <f>C6</f>
         <v/>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C6" t="str">
         <f>C7&amp;C8&amp;C9&amp;C10&amp;C11&amp;C12&amp;C13&amp;C14&amp;C15&amp;C16&amp;C17&amp;C18&amp;C19&amp;C20&amp;C21&amp;C22&amp;C23&amp;C24&amp;C25&amp;C26&amp;C27&amp;C28&amp;C29&amp;C30&amp;C31&amp;C32&amp;C33&amp;C34&amp;C35&amp;C36&amp;C37&amp;C38&amp;C39&amp;C40&amp;C41&amp;C42&amp;C43&amp;C44&amp;C45&amp;C46&amp;C47&amp;C48&amp;C49&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62</f>
         <v/>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <v>3</v>
       </c>
       <c r="G6" s="5">
@@ -911,17 +913,17 @@
         <f t="shared" si="0"/>
         <v>44367</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="11"/>
       <c r="C7" t="str">
         <f>IF(G$3="v",DAY(G$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -935,7 +937,7 @@
         <f>IF(H$3="v",DAY(H$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>4</v>
       </c>
       <c r="G8" s="5">
@@ -973,7 +975,7 @@
         <v/>
       </c>
       <c r="D9" s="4"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -988,7 +990,7 @@
         <v/>
       </c>
       <c r="D10" s="4"/>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <v>5</v>
       </c>
       <c r="G10" s="5" t="str">
@@ -1025,7 +1027,7 @@
         <f>IF(K$3="v",DAY(K$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1039,7 +1041,7 @@
         <f>IF(L$3="v",DAY(L$2)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="13">
         <v>6</v>
       </c>
       <c r="G12" s="5" t="str">
@@ -1077,7 +1079,7 @@
         <v/>
       </c>
       <c r="D13" s="4"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1091,7 +1093,7 @@
         <f>IF(G$5="v",DAY(G$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="13">
         <v>7</v>
       </c>
       <c r="G14" s="5" t="str">
@@ -1128,7 +1130,7 @@
         <f>IF(H$5="v",DAY(H$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1142,7 +1144,7 @@
         <f>IF(I$5="v",DAY(I$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="13">
         <v>8</v>
       </c>
       <c r="G16" s="5" t="str">
@@ -1179,7 +1181,7 @@
         <f>IF(J$5="v",DAY(J$4)&amp;";","")</f>
         <v/>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1499,8 +1501,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1583,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1607,7 +1609,7 @@
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1633,7 +1635,7 @@
         <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1659,14 +1661,14 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C6">
@@ -1682,7 +1684,7 @@
         <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1705,7 +1707,7 @@
         <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1728,7 +1730,7 @@
         <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1754,7 +1756,7 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -15,17 +15,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1617823326" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1617823326" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1617823326" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1617823326"/>
+      <pm:revision xmlns:pm="smNativeData" day="1617825070" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1617825070" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1617825070" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1617825070"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
   <si>
     <t>Semaine</t>
   </si>
@@ -102,94 +102,88 @@
     <t>WA421</t>
   </si>
   <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>BHK=pilot</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SE422_oral_1</t>
+  </si>
+  <si>
+    <t>SE422</t>
+  </si>
+  <si>
+    <t>SE422_oral_2</t>
+  </si>
+  <si>
+    <t>TN423</t>
+  </si>
+  <si>
+    <t>BHK=navy</t>
+  </si>
+  <si>
+    <t>TP424</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>DS425</t>
+  </si>
+  <si>
+    <t>30-&gt;5</t>
+  </si>
+  <si>
+    <t>SE426</t>
+  </si>
+  <si>
+    <t>SE422_written</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>cours de smeuh 1</t>
+  </si>
+  <si>
     <t>13; 14;15</t>
   </si>
   <si>
-    <t>oral</t>
-  </si>
-  <si>
-    <t>BHK=pilot</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>SE422_oral_1</t>
-  </si>
-  <si>
-    <t>30-&gt;2</t>
-  </si>
-  <si>
-    <t>SE422</t>
-  </si>
-  <si>
-    <t>SE422_oral_2</t>
-  </si>
-  <si>
-    <t>TN423</t>
-  </si>
-  <si>
-    <t>18;19</t>
-  </si>
-  <si>
-    <t>BHK=navy</t>
-  </si>
-  <si>
-    <t>TP424</t>
-  </si>
-  <si>
-    <t>16-&gt;20</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>DS425</t>
+    <t>BHK=N</t>
+  </si>
+  <si>
+    <t>cours de smeuh 2</t>
+  </si>
+  <si>
+    <t>30-&gt;2;   11 -&gt; 15</t>
+  </si>
+  <si>
+    <t>BHK=F</t>
+  </si>
+  <si>
+    <t>Teuf 1</t>
+  </si>
+  <si>
+    <t>1-&gt;10;18;19</t>
+  </si>
+  <si>
+    <t>Teuf 2</t>
   </si>
   <si>
     <t>19;20</t>
   </si>
   <si>
-    <t>SE426</t>
+    <t>Teuf 3</t>
+  </si>
+  <si>
+    <t>gueule de bois</t>
   </si>
   <si>
     <t>17-&gt;20</t>
-  </si>
-  <si>
-    <t>SE422_written</t>
-  </si>
-  <si>
-    <t>30-&gt;2;   11 -&gt; 15</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>cours de smeuh 1</t>
-  </si>
-  <si>
-    <t>BHK=N</t>
-  </si>
-  <si>
-    <t>cours de smeuh 2</t>
-  </si>
-  <si>
-    <t>BHK=F</t>
-  </si>
-  <si>
-    <t>Teuf 1</t>
-  </si>
-  <si>
-    <t>1-&gt;10;18;19</t>
-  </si>
-  <si>
-    <t>Teuf 2</t>
-  </si>
-  <si>
-    <t>Teuf 3</t>
-  </si>
-  <si>
-    <t>gueule de bois</t>
   </si>
   <si>
     <t>Soirée Coaster</t>
@@ -220,7 +214,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617823326" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1617825070" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -235,7 +229,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617823326" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1617825070" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -251,7 +245,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617823326" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1617825070" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold"/>
@@ -294,7 +288,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1617823326" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1617825070" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -305,7 +299,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1617823326" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1617825070" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -327,7 +321,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326"/>
+          <pm:border xmlns:pm="smNativeData" id="1617825070"/>
         </ext>
       </extLst>
     </border>
@@ -346,7 +340,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326">
+          <pm:border xmlns:pm="smNativeData" id="1617825070">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -369,7 +363,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326">
+          <pm:border xmlns:pm="smNativeData" id="1617825070">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -392,7 +386,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326">
+          <pm:border xmlns:pm="smNativeData" id="1617825070">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -415,7 +409,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326">
+          <pm:border xmlns:pm="smNativeData" id="1617825070">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -437,7 +431,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326">
+          <pm:border xmlns:pm="smNativeData" id="1617825070">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -460,7 +454,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326">
+          <pm:border xmlns:pm="smNativeData" id="1617825070">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -484,7 +478,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326">
+          <pm:border xmlns:pm="smNativeData" id="1617825070">
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -505,7 +499,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326"/>
+          <pm:border xmlns:pm="smNativeData" id="1617825070"/>
         </ext>
       </extLst>
     </border>
@@ -524,7 +518,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617823326"/>
+          <pm:border xmlns:pm="smNativeData" id="1617825070"/>
         </ext>
       </extLst>
     </border>
@@ -563,7 +557,7 @@
           <bgColor rgb="FFE26B0A"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1617823326" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1617825070" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -575,7 +569,7 @@
           <bgColor rgb="FFC2D69A"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1617823326" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1617825070" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -585,10 +579,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1617823326" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1617825070" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1617823326" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1617825070" count="2">
         <pm:color name="Color 24" rgb="E26B0A"/>
         <pm:color name="Color 25" rgb="C2D69A"/>
       </pm:colors>
@@ -906,7 +900,7 @@
     <col min="3" max="3" width="6.553571" hidden="1" customWidth="1">
       <extLst>
         <ext uri="smNativeData">
-          <pm:columnDef xmlns:pm="smNativeData" id="1617823326" min="3" max="3" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:columnDef xmlns:pm="smNativeData" id="1617825070" min="3" max="3" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </col>
@@ -1697,7 +1691,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617823326" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617825070" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1706,14 +1700,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617823326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617823326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617823326" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617825070" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1727,14 +1721,14 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
   <cols>
     <col min="1" max="1" width="15.776786" customWidth="1"/>
     <col min="2" max="2" width="16.437500" customWidth="1"/>
-    <col min="3" max="3" width="5.883929" customWidth="1"/>
+    <col min="3" max="3" width="18.107143" customWidth="1"/>
     <col min="4" max="4" width="22.330357" customWidth="1"/>
     <col min="5" max="6" width="15.330357" customWidth="1"/>
     <col min="7" max="7" width="17.883929" customWidth="1"/>
@@ -1782,9 +1776,7 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="n">
         <v>1</v>
       </c>
@@ -1792,13 +1784,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>44346</v>
@@ -1808,94 +1800,86 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B4" s="1"/>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
         <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
         <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="n">
         <v>1</v>
       </c>
@@ -1903,105 +1887,101 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
         <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
         <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
         <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +1996,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617823326" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617825070" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2025,8 +2005,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617823326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617823326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2035,7 +2015,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617823326" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617825070" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2099,10 +2079,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2111,13 +2091,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
         <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>44346</v>
@@ -2127,13 +2107,13 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>44</v>
@@ -2145,24 +2125,24 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -2171,24 +2151,24 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
         <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2197,24 +2177,24 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" t="n">
         <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2223,21 +2203,21 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
         <v>157</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2246,18 +2226,18 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
         <v>157</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
@@ -2269,33 +2249,33 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>157</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2290,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617823326" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1617825070" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2319,8 +2299,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617823326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617823326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2329,7 +2309,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617823326" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617825070" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -5,66 +5,26 @@
   <fileSharing readOnlyRecommended="0" userName="sputnik"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="23252" windowHeight="12579" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23252" windowHeight="12579" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Calendrier" sheetId="1" r:id="rId4"/>
-    <sheet name="172 POL" sheetId="2" r:id="rId5"/>
-    <sheet name="157 SSMW" sheetId="3" r:id="rId6"/>
+    <sheet name="172 POL" sheetId="1" r:id="rId4"/>
+    <sheet name="157 SSMW" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1617825070" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1617825070" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1617825070" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1617825070"/>
+      <pm:revision xmlns:pm="smNativeData" day="1618571178" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1618571178" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1618571178" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1618571178"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
-  <si>
-    <t>Semaine</t>
-  </si>
-  <si>
-    <t>Lundi</t>
-  </si>
-  <si>
-    <t>Mardi</t>
-  </si>
-  <si>
-    <t>Mercredi</t>
-  </si>
-  <si>
-    <t>Jeudi</t>
-  </si>
-  <si>
-    <t>Vendredi</t>
-  </si>
-  <si>
-    <t>Samedi</t>
-  </si>
-  <si>
-    <t>Dimanche</t>
-  </si>
-  <si>
-    <t>Date de départ</t>
-  </si>
-  <si>
-    <t>Date de fin</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Fini</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -206,7 +166,7 @@
     <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -214,7 +174,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617825070" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618571178" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -229,7 +189,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617825070" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618571178" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -237,24 +197,8 @@
         </ext>
       </extLst>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1617825070" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="280" lang="default" weight="bold"/>
-            <pm:cs face="Basic Roman" sz="280" lang="default" weight="bold"/>
-            <pm:ea face="Basic Roman" sz="280" lang="default" weight="bold"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,24 +232,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1617825070" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1617825070" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1618571178" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -321,7 +254,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070"/>
+          <pm:border xmlns:pm="smNativeData" id="1618571178"/>
         </ext>
       </extLst>
     </border>
@@ -340,7 +273,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070">
+          <pm:border xmlns:pm="smNativeData" id="1618571178">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -363,7 +296,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070">
+          <pm:border xmlns:pm="smNativeData" id="1618571178">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -386,7 +319,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070">
+          <pm:border xmlns:pm="smNativeData" id="1618571178">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -409,7 +342,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070">
+          <pm:border xmlns:pm="smNativeData" id="1618571178">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -431,7 +364,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070">
+          <pm:border xmlns:pm="smNativeData" id="1618571178">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -454,7 +387,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070">
+          <pm:border xmlns:pm="smNativeData" id="1618571178">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -478,7 +411,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070">
+          <pm:border xmlns:pm="smNativeData" id="1618571178">
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -499,26 +432,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1617825070"/>
+          <pm:border xmlns:pm="smNativeData" id="1618571178"/>
         </ext>
       </extLst>
     </border>
@@ -526,63 +440,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="1" hidden="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFE26B0A"/>
-          <extLst>
-            <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1617825070" type="1" fgLvl="100" fgClr="00E26B0A" bgLvl="100" bgClr="FFFFFFFF"/>
-            </ext>
-          </extLst>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC2D69A"/>
-          <extLst>
-            <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1617825070" type="1" fgLvl="100" fgClr="00C2D69A" bgLvl="100" bgClr="FFFFFFFF"/>
-            </ext>
-          </extLst>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1617825070" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1618571178" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1617825070" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1618571178" count="2">
         <pm:color name="Color 24" rgb="E26B0A"/>
         <pm:color name="Color 25" rgb="C2D69A"/>
       </pm:colors>
@@ -887,837 +762,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
-  <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.633929" defaultRowHeight="15.40"/>
-  <cols>
-    <col min="1" max="1" width="13.330357" customWidth="1"/>
-    <col min="2" max="2" width="10.973214" customWidth="1"/>
-    <col min="3" max="3" width="6.553571" hidden="1" customWidth="1">
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:columnDef xmlns:pm="smNativeData" id="1617825070" min="3" max="3" hidden="1" collapsedDB="0" collapsedOL="0"/>
-        </ext>
-      </extLst>
-    </col>
-    <col min="5" max="11" width="11.553571" customWidth="1"/>
-    <col min="13" max="13" width="13.330357" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13">
-      <c r="B1" s="3"/>
-      <c r="C1">
-        <f>WEEKDAY(B1,2)</f>
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>44348</v>
-      </c>
-      <c r="C2">
-        <f>WEEKDAY(B2,2)</f>
-        <v>2</v>
-      </c>
-      <c r="F2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="str">
-        <f>IF($C$2=1,$B$2,"")</f>
-        <v/>
-      </c>
-      <c r="H2" s="4">
-        <f>IF($C$2=2,$B$2,IF(G2="","",IF(G2=$B$3,"",G2+1)))</f>
-        <v>44348</v>
-      </c>
-      <c r="I2" s="4">
-        <f>IF($C$2=3,$B$2,IF(H2="","",IF(H2=$B$3,"",H2+1)))</f>
-        <v>44349</v>
-      </c>
-      <c r="J2" s="4">
-        <f>IF($C$2=4,$B$2,IF(I2="","",IF(I2=$B$3,"",I2+1)))</f>
-        <v>44350</v>
-      </c>
-      <c r="K2" s="4">
-        <f>IF($C$2=5,$B$2,IF(J2="","",IF(J2=$B$3,"",J2+1)))</f>
-        <v>44351</v>
-      </c>
-      <c r="L2" s="4">
-        <f>IF($C$2=6,$B$2,IF(K2="","",IF(K2=$B$3,"",K2+1)))</f>
-        <v>44352</v>
-      </c>
-      <c r="M2" s="4">
-        <f>IF($C$2=7,$B$2,IF(L2="","",IF(L2=$B$3,"",L2+1)))</f>
-        <v>44353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>44369</v>
-      </c>
-      <c r="C3">
-        <f>WEEKDAY(B3,2)</f>
-        <v>2</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" t="str">
-        <f>IF(B3-B2&lt;0,"ERREUR","")</f>
-        <v/>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <f>IF(M2="","",IF(M2=$B$3,"",M2+1))</f>
-        <v>44354</v>
-      </c>
-      <c r="H4" s="4">
-        <f>IF(G4="","",IF(G4=$B$3,"",G4+1))</f>
-        <v>44355</v>
-      </c>
-      <c r="I4" s="4">
-        <f>IF(H4="","",IF(H4=$B$3,"",H4+1))</f>
-        <v>44356</v>
-      </c>
-      <c r="J4" s="4">
-        <f>IF(I4="","",IF(I4=$B$3,"",I4+1))</f>
-        <v>44357</v>
-      </c>
-      <c r="K4" s="4">
-        <f>IF(J4="","",IF(J4=$B$3,"",J4+1))</f>
-        <v>44358</v>
-      </c>
-      <c r="L4" s="4">
-        <f>IF(K4="","",IF(K4=$B$3,"",K4+1))</f>
-        <v>44359</v>
-      </c>
-      <c r="M4" s="4">
-        <f>IF(L4="","",IF(L4=$B$3,"",L4+1))</f>
-        <v>44360</v>
-      </c>
-    </row>
-    <row r="5" spans="3:17">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="O5" s="10" t="str">
-        <f>C6</f>
-        <v>1;3;4;5;6;</v>
-      </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="3:17">
-      <c r="C6" t="str">
-        <f>C7&amp;C8&amp;C9&amp;C10&amp;C11&amp;C12&amp;C13&amp;C14&amp;C15&amp;C16&amp;C17&amp;C18&amp;C19&amp;C20&amp;C21&amp;C22&amp;C23&amp;C24&amp;C25&amp;C26&amp;C27&amp;C28&amp;C29&amp;C30&amp;C31&amp;C32&amp;C33&amp;C34&amp;C35&amp;C36&amp;C37&amp;C38&amp;C39&amp;C40&amp;C41&amp;C42&amp;C43&amp;C44&amp;C45&amp;C46&amp;C47&amp;C48&amp;C49&amp;C50&amp;C51&amp;C52&amp;C53&amp;C54&amp;C55&amp;C56&amp;C57&amp;C58&amp;C59&amp;C60&amp;C61&amp;C62</f>
-        <v>1;3;4;5;6;</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <f>IF(M4="","",IF(M4=$B$3,"",M4+1))</f>
-        <v>44361</v>
-      </c>
-      <c r="H6" s="4">
-        <f>IF(G6="","",IF(G6=$B$3,"",G6+1))</f>
-        <v>44362</v>
-      </c>
-      <c r="I6" s="4">
-        <f>IF(H6="","",IF(H6=$B$3,"",H6+1))</f>
-        <v>44363</v>
-      </c>
-      <c r="J6" s="4">
-        <f>IF(I6="","",IF(I6=$B$3,"",I6+1))</f>
-        <v>44364</v>
-      </c>
-      <c r="K6" s="4">
-        <f>IF(J6="","",IF(J6=$B$3,"",J6+1))</f>
-        <v>44365</v>
-      </c>
-      <c r="L6" s="4">
-        <f>IF(K6="","",IF(K6=$B$3,"",K6+1))</f>
-        <v>44366</v>
-      </c>
-      <c r="M6" s="4">
-        <f>IF(L6="","",IF(L6=$B$3,"",L6+1))</f>
-        <v>44367</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="12"/>
-      <c r="C7" t="str">
-        <f>IF(G$3="v",DAY(G$2)&amp;";","")</f>
-        <v/>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="3:13">
-      <c r="C8" t="str">
-        <f>IF(H$3="v",DAY(H$2)&amp;";","")</f>
-        <v>1;</v>
-      </c>
-      <c r="F8" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <f>IF(M6="","",IF(M6=$B$3,"",M6+1))</f>
-        <v>44368</v>
-      </c>
-      <c r="H8" s="4">
-        <f>IF(G8="","",IF(G8=$B$3,"",G8+1))</f>
-        <v>44369</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f>IF(H8="","",IF(H8=$B$3,"",H8+1))</f>
-        <v/>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f>IF(I8="","",IF(I8=$B$3,"",I8+1))</f>
-        <v/>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f>IF(J8="","",IF(J8=$B$3,"",J8+1))</f>
-        <v/>
-      </c>
-      <c r="L8" s="4" t="str">
-        <f>IF(K8="","",IF(K8=$B$3,"",K8+1))</f>
-        <v/>
-      </c>
-      <c r="M8" s="4" t="str">
-        <f>IF(L8="","",IF(L8=$B$3,"",L8+1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
-      <c r="C9" t="str">
-        <f>IF(I$3="v",DAY(I$2)&amp;";","")</f>
-        <v/>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="3:13">
-      <c r="C10" t="str">
-        <f>IF(J$3="v",DAY(J$2)&amp;";","")</f>
-        <v>3;</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <f>IF(M8="","",IF(M8=$B$3,"",M8+1))</f>
-        <v/>
-      </c>
-      <c r="H10" s="4" t="str">
-        <f>IF(G10="","",IF(G10=$B$3,"",G10+1))</f>
-        <v/>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f>IF(H10="","",IF(H10=$B$3,"",H10+1))</f>
-        <v/>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f>IF(I10="","",IF(I10=$B$3,"",I10+1))</f>
-        <v/>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f>IF(J10="","",IF(J10=$B$3,"",J10+1))</f>
-        <v/>
-      </c>
-      <c r="L10" s="4" t="str">
-        <f>IF(K10="","",IF(K10=$B$3,"",K10+1))</f>
-        <v/>
-      </c>
-      <c r="M10" s="4" t="str">
-        <f>IF(L10="","",IF(L10=$B$3,"",L10+1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="C11" t="str">
-        <f>IF(K$3="v",DAY(K$2)&amp;";","")</f>
-        <v>4;</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="3:13">
-      <c r="C12" t="str">
-        <f>IF(L$3="v",DAY(L$2)&amp;";","")</f>
-        <v>5;</v>
-      </c>
-      <c r="F12" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <f>IF(M10="","",IF(M10=$B$3,"",M10+1))</f>
-        <v/>
-      </c>
-      <c r="H12" s="4" t="str">
-        <f>IF(G12="","",IF(G12=$B$3,"",G12+1))</f>
-        <v/>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f>IF(H12="","",IF(H12=$B$3,"",H12+1))</f>
-        <v/>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f>IF(I12="","",IF(I12=$B$3,"",I12+1))</f>
-        <v/>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f>IF(J12="","",IF(J12=$B$3,"",J12+1))</f>
-        <v/>
-      </c>
-      <c r="L12" s="4" t="str">
-        <f>IF(K12="","",IF(K12=$B$3,"",K12+1))</f>
-        <v/>
-      </c>
-      <c r="M12" s="4" t="str">
-        <f>IF(L12="","",IF(L12=$B$3,"",L12+1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="C13" t="str">
-        <f>IF(M$3="v",DAY(M$2)&amp;";","")</f>
-        <v>6;</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="3:13">
-      <c r="C14" t="str">
-        <f>IF(G$5="v",DAY(G$4)&amp;";","")</f>
-        <v/>
-      </c>
-      <c r="F14" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f>IF(M12="","",IF(M12=$B$3,"",M12+1))</f>
-        <v/>
-      </c>
-      <c r="H14" s="4" t="str">
-        <f>IF(G14="","",IF(G14=$B$3,"",G14+1))</f>
-        <v/>
-      </c>
-      <c r="I14" s="4" t="str">
-        <f>IF(H14="","",IF(H14=$B$3,"",H14+1))</f>
-        <v/>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f>IF(I14="","",IF(I14=$B$3,"",I14+1))</f>
-        <v/>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f>IF(J14="","",IF(J14=$B$3,"",J14+1))</f>
-        <v/>
-      </c>
-      <c r="L14" s="4" t="str">
-        <f>IF(K14="","",IF(K14=$B$3,"",K14+1))</f>
-        <v/>
-      </c>
-      <c r="M14" s="4" t="str">
-        <f>IF(L14="","",IF(L14=$B$3,"",L14+1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="3:13">
-      <c r="C15" t="str">
-        <f>IF(H$5="v",DAY(H$4)&amp;";","")</f>
-        <v/>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="3:13">
-      <c r="C16" t="str">
-        <f>IF(I$5="v",DAY(I$4)&amp;";","")</f>
-        <v/>
-      </c>
-      <c r="F16" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <f>IF(M14="","",IF(M14=$B$3,"",M14+1))</f>
-        <v/>
-      </c>
-      <c r="H16" s="4" t="str">
-        <f>IF(G16="","",IF(G16=$B$3,"",G16+1))</f>
-        <v/>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f>IF(H16="","",IF(H16=$B$3,"",H16+1))</f>
-        <v/>
-      </c>
-      <c r="J16" s="4" t="str">
-        <f>IF(I16="","",IF(I16=$B$3,"",I16+1))</f>
-        <v/>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f>IF(J16="","",IF(J16=$B$3,"",J16+1))</f>
-        <v/>
-      </c>
-      <c r="L16" s="4" t="str">
-        <f>IF(K16="","",IF(K16=$B$3,"",K16+1))</f>
-        <v/>
-      </c>
-      <c r="M16" s="4" t="str">
-        <f>IF(L16="","",IF(L16=$B$3,"",L16+1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" t="str">
-        <f>IF(J$5="v",DAY(J$4)&amp;";","")</f>
-        <v/>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="str">
-        <f>IF(K$5="v",DAY(K$4)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="str">
-        <f>IF(L$5="v",DAY(L$4)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="str">
-        <f>IF(M$5="v",DAY(M$4)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="str">
-        <f>IF(G$7="v",DAY(G$6)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="str">
-        <f>IF(H$7="v",DAY(H$6)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="str">
-        <f>IF(I$7="v",DAY(I$6)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="str">
-        <f>IF(J$7="v",DAY(J$6)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="str">
-        <f>IF(K$7="v",DAY(K$6)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="str">
-        <f>IF(L$7="v",DAY(L$6)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="str">
-        <f>IF(M$7="v",DAY(M$6)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="str">
-        <f>IF(G$9="v",DAY(G$8)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="str">
-        <f>IF(H$9="v",DAY(H$8)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="str">
-        <f>IF(I$9="v",DAY(I$8)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="str">
-        <f>IF(J$9="v",DAY(J$8)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="str">
-        <f>IF(K$9="v",DAY(K$8)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="str">
-        <f>IF(L$9="v",DAY(L$8)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="str">
-        <f>IF(M$9="v",DAY(M$8)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="str">
-        <f>IF(G$11="v",DAY(G$10)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="str">
-        <f>IF(H$11="v",DAY(H$10)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="str">
-        <f>IF(I$11="v",DAY(I$10)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="str">
-        <f>IF(J$11="v",DAY(J$10)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="str">
-        <f>IF(K$11="v",DAY(K$10)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="str">
-        <f>IF(L$11="v",DAY(L$10)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="str">
-        <f>IF(M$11="v",DAY(M$10)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="str">
-        <f>IF(G$13="v",DAY(G$12)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="str">
-        <f>IF(H$13="v",DAY(H$12)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="str">
-        <f>IF(I$13="v",DAY(I$12)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="str">
-        <f>IF(J$13="v",DAY(J$12)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="str">
-        <f>IF(K$13="v",DAY(K$12)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="str">
-        <f>IF(L$13="v",DAY(L$12)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" t="str">
-        <f>IF(M$13="v",DAY(M$12)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="str">
-        <f>IF(G$15="v",DAY(G$14)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="str">
-        <f>IF(H$15="v",DAY(H$14)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" t="str">
-        <f>IF(I$15="v",DAY(I$14)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" t="str">
-        <f>IF(J$15="v",DAY(J$14)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="str">
-        <f>IF(K$15="v",DAY(K$14)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="str">
-        <f>IF(L$15="v",DAY(L$14)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="str">
-        <f>IF(M$15="v",DAY(M$14)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="str">
-        <f>IF(G$17="v",DAY(G$16)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="str">
-        <f>IF(H$17="v",DAY(H$16)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="str">
-        <f>IF(I$17="v",DAY(I$16)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="str">
-        <f>IF(J$17="v",DAY(J$16)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="str">
-        <f>IF(K$17="v",DAY(K$16)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" t="str">
-        <f>IF(L$17="v",DAY(L$16)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" t="str">
-        <f>IF(M$17="v",DAY(M$16)&amp;";","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G2:M17">
-    <cfRule type="containsText" dxfId="0" priority="1" text="x">
-      <formula>NOT(ISERROR(SEARCH("x", G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:M17">
-    <cfRule type="containsText" dxfId="1" priority="2" text="v">
-      <formula>NOT(ISERROR(SEARCH("v", G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation sqref="G3:M3 G5:M5 G7:M7 G9:M9 G11:M11 G13:M13 G15:M15 G17:M17 G19:M19 G21:M21 G23:M23 G25:M25 G27:M27 G29:M29 G31:M31 G33:M33 G35:M35 G37:M37 G39:M39 G41:M41 G43:M43 G45:M45 G47:M47 G49:M49" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
-      <formula1>$C$4:$C$5</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617825070" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617825070" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
@@ -1739,42 +783,42 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="n">
@@ -1784,13 +828,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>44346</v>
@@ -1800,12 +844,12 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="n">
@@ -1815,21 +859,21 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="n">
@@ -1839,21 +883,21 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="n">
@@ -1863,21 +907,21 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="n">
@@ -1887,21 +931,21 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
         <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -1910,18 +954,18 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
         <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="n">
@@ -1931,18 +975,18 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>172</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" t="n">
@@ -1952,36 +996,36 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
         <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +1040,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617825070" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1618571178" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2005,8 +1049,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2015,7 +1059,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617825070" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618571178" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2024,7 +1068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
@@ -2044,45 +1088,45 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2091,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>44346</v>
@@ -2107,16 +1151,16 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -2125,24 +1169,24 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -2151,24 +1195,24 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2177,24 +1221,24 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2203,21 +1247,21 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>157</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2226,21 +1270,21 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
         <v>157</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2249,33 +1293,33 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>157</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +1334,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1617825070" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1618571178" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2299,8 +1343,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1617825070" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -2309,7 +1353,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1617825070" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618571178" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -14,97 +14,100 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1618571178" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1618571178" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1618571178" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1618571178"/>
+      <pm:revision xmlns:pm="smNativeData" day="1618575011" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1618575011" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1618575011" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1618575011"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Amount days</t>
+  </si>
+  <si>
+    <t>preparation days</t>
+  </si>
+  <si>
+    <t>oral/written</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t>Student groups</t>
+  </si>
+  <si>
+    <t>start date</t>
+  </si>
+  <si>
+    <t>final date</t>
+  </si>
+  <si>
+    <t>Course group</t>
+  </si>
+  <si>
+    <t>is weekend ok?</t>
+  </si>
+  <si>
+    <t>WA421</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>BHK=pilot</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SE422_oral_1</t>
+  </si>
+  <si>
+    <t>Merken</t>
+  </si>
+  <si>
+    <t>SE422</t>
+  </si>
+  <si>
+    <t>SE422_oral_2</t>
+  </si>
+  <si>
+    <t>TN423</t>
+  </si>
+  <si>
+    <t>BHK=navy</t>
+  </si>
+  <si>
+    <t>TP424</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>DS425</t>
+  </si>
+  <si>
+    <t>SE426</t>
+  </si>
+  <si>
+    <t>SE422_written</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Unavailability</t>
-  </si>
-  <si>
-    <t>Amount days</t>
-  </si>
-  <si>
-    <t>preparation days</t>
-  </si>
-  <si>
-    <t>oral/written</t>
-  </si>
-  <si>
-    <t>Promotions</t>
-  </si>
-  <si>
-    <t>Student groups</t>
-  </si>
-  <si>
-    <t>start date</t>
-  </si>
-  <si>
-    <t>final date</t>
-  </si>
-  <si>
-    <t>Course group</t>
-  </si>
-  <si>
-    <t>is weekend ok?</t>
-  </si>
-  <si>
-    <t>WA421</t>
-  </si>
-  <si>
-    <t>oral</t>
-  </si>
-  <si>
-    <t>BHK=pilot</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>SE422_oral_1</t>
-  </si>
-  <si>
-    <t>SE422</t>
-  </si>
-  <si>
-    <t>SE422_oral_2</t>
-  </si>
-  <si>
-    <t>TN423</t>
-  </si>
-  <si>
-    <t>BHK=navy</t>
-  </si>
-  <si>
-    <t>TP424</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>DS425</t>
-  </si>
-  <si>
-    <t>30-&gt;5</t>
-  </si>
-  <si>
-    <t>SE426</t>
-  </si>
-  <si>
-    <t>SE422_written</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>cours de smeuh 1</t>
@@ -153,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
@@ -164,7 +167,6 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
     <numFmt numFmtId="20" formatCode="h:mm"/>
     <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -174,7 +176,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1618571178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618575011" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -189,7 +191,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1618571178" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1618575011" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -198,7 +200,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,39 +208,29 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1618571178" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1618575011" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1618575011" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -254,166 +246,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
+          <pm:border xmlns:pm="smNativeData" id="1618575011"/>
         </ext>
       </extLst>
     </border>
@@ -432,7 +265,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178"/>
+          <pm:border xmlns:pm="smNativeData" id="1618575011"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1618575011"/>
         </ext>
       </extLst>
     </border>
@@ -454,10 +306,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1618571178" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1618575011" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1618571178" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1618575011" count="2">
         <pm:color name="Color 24" rgb="E26B0A"/>
         <pm:color name="Color 25" rgb="C2D69A"/>
       </pm:colors>
@@ -471,7 +323,7 @@
   <autoFilter ref="A1:K9"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Unavailability"/>
+    <tableColumn id="2" name="Professor"/>
     <tableColumn id="3" name="Amount days"/>
     <tableColumn id="4" name="preparation days"/>
     <tableColumn id="5" name="oral/written"/>
@@ -765,7 +617,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
@@ -851,7 +703,9 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
@@ -865,7 +719,7 @@
         <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -873,9 +727,11 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
@@ -889,7 +745,7 @@
         <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -897,7 +753,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="n">
@@ -913,7 +769,7 @@
         <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -921,7 +777,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="n">
@@ -931,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
         <v>172</v>
@@ -942,11 +798,9 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B7" s="1"/>
       <c r="C7" t="n">
         <v>3</v>
       </c>
@@ -975,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>172</v>
@@ -988,7 +842,9 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
@@ -996,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1025,7 +881,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +896,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1618571178" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1618575011" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1049,8 +905,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1618575011" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1618575011" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -1059,7 +915,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618571178" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618575011" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1091,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1123,10 +979,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1141,7 +997,7 @@
         <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>44346</v>
@@ -1157,10 +1013,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1175,7 +1031,7 @@
         <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1183,10 +1039,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1201,7 +1057,7 @@
         <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -1209,10 +1065,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1221,13 +1077,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -1235,10 +1091,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1258,10 +1114,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1270,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
         <v>157</v>
@@ -1281,10 +1137,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1293,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>157</v>
@@ -1319,7 +1175,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1190,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1618571178" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1618575011" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1343,8 +1199,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1618575011" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1618575011" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -1353,7 +1209,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618571178" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618575011" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="sputnik"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\ERM\1Ma\DS425_E\Practicals_work\Projects\ExamTimetable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCBBFE0-563F-423A-9440-F4ADDC10382D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23252" windowHeight="12579" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="172 POL" sheetId="1" r:id="rId4"/>
-    <sheet name="157 SSMW" sheetId="2" r:id="rId5"/>
+    <sheet name="172 POL" sheetId="1" r:id="rId1"/>
+    <sheet name="157 SSMW" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1618571178" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -113,18 +118,12 @@
     <t>13; 14;15</t>
   </si>
   <si>
-    <t>BHK=N</t>
-  </si>
-  <si>
     <t>cours de smeuh 2</t>
   </si>
   <si>
     <t>30-&gt;2;   11 -&gt; 15</t>
   </si>
   <si>
-    <t>BHK=F</t>
-  </si>
-  <si>
     <t>Teuf 1</t>
   </si>
   <si>
@@ -147,312 +146,70 @@
   </si>
   <si>
     <t>Soirée Coaster</t>
+  </si>
+  <si>
+    <t>LANG=N</t>
+  </si>
+  <si>
+    <t>LANG=F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="20" formatCode="h:mm"/>
-    <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="49" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="h:mm"/>
+    <numFmt numFmtId="173" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1618571178" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1618571178" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1618571178" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178">
-            <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618571178"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="1" hidden="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1618571178" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
@@ -467,40 +224,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:K9" totalsRowShown="0">
-  <autoFilter ref="A1:K9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:K9" totalsRowShown="0">
+  <autoFilter ref="A1:K9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Unavailability"/>
-    <tableColumn id="3" name="Amount days"/>
-    <tableColumn id="4" name="preparation days"/>
-    <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotions"/>
-    <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="start date"/>
-    <tableColumn id="9" name="final date"/>
-    <tableColumn id="10" name="Course group"/>
-    <tableColumn id="11" name="is weekend ok?" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unavailability"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Promotions"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="start date"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="final date"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Course group"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="is weekend ok?" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0">
-  <autoFilter ref="A1:K8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0">
+  <autoFilter ref="A1:K8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Unavailability"/>
-    <tableColumn id="3" name="Amount days"/>
-    <tableColumn id="4" name="preparation days"/>
-    <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotions"/>
-    <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="start date"/>
-    <tableColumn id="9" name="final date"/>
-    <tableColumn id="10" name="Course group"/>
-    <tableColumn id="11" name="is weekend ok?" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Unavailability"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Promotions"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="start date"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="final date"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Course group"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="is weekend ok?" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -761,27 +518,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.776786" customWidth="1"/>
-    <col min="2" max="2" width="16.437500" customWidth="1"/>
-    <col min="3" max="3" width="18.107143" customWidth="1"/>
-    <col min="4" max="4" width="22.330357" customWidth="1"/>
-    <col min="5" max="6" width="15.330357" customWidth="1"/>
-    <col min="7" max="7" width="17.883929" customWidth="1"/>
-    <col min="8" max="8" width="11.214286" customWidth="1"/>
-    <col min="10" max="10" width="14.330357" customWidth="1"/>
-    <col min="11" max="11" width="23.330357" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -816,30 +573,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>172</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>44346</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>44367</v>
       </c>
       <c r="J2" s="3"/>
@@ -847,21 +604,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>172</v>
       </c>
       <c r="J3" t="s">
@@ -871,21 +628,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>172</v>
       </c>
       <c r="J4" t="s">
@@ -895,21 +652,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>172</v>
       </c>
       <c r="G5" t="s">
@@ -919,86 +676,86 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>172</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>172</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>172</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>172</v>
       </c>
       <c r="J9" t="s">
@@ -1008,52 +765,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2:E9" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$37:$A$38</formula1>
     </dataValidation>
-    <dataValidation sqref="K2:K9" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$A$35:$A$36</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1618571178" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1069,24 +811,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="N6" sqref="N1:N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.000000" customWidth="1"/>
-    <col min="2" max="2" width="16.553571" customWidth="1"/>
-    <col min="3" max="3" width="15.214286" customWidth="1"/>
-    <col min="4" max="4" width="15.553571" customWidth="1"/>
-    <col min="7" max="7" width="16.776786" customWidth="1"/>
-    <col min="14" max="14" width="17.660714" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,32 +863,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3">
         <v>44346</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>44367</v>
       </c>
       <c r="J2" s="3"/>
@@ -1155,199 +897,184 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>157</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>157</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>157</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2:E8" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$31:$A$32</formula1>
     </dataValidation>
-    <dataValidation sqref="K2:K8" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K8" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$A$29:$A$30</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1618571178" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1618571178" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="sputnik"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23252" windowHeight="12579" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="23246" windowHeight="12578" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="172 POL" sheetId="1" r:id="rId4"/>
@@ -14,17 +14,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1618575011" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1618575011" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1618575011" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1618575011"/>
+      <pm:revision xmlns:pm="smNativeData" day="1619371127" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1619371127" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1619371127" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1619371127"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -41,79 +41,76 @@
     <t>oral/written</t>
   </si>
   <si>
-    <t>Promotions</t>
+    <t>Promotion</t>
   </si>
   <si>
     <t>Student groups</t>
   </si>
   <si>
-    <t>start date</t>
-  </si>
-  <si>
-    <t>final date</t>
-  </si>
-  <si>
     <t>Course group</t>
   </si>
   <si>
-    <t>is weekend ok?</t>
-  </si>
-  <si>
     <t>WA421</t>
   </si>
   <si>
+    <t>Van Utterbeek</t>
+  </si>
+  <si>
     <t>oral</t>
   </si>
   <si>
+    <t>172POL</t>
+  </si>
+  <si>
     <t>BHK=pilot</t>
   </si>
   <si>
+    <t>SE422_oral_1</t>
+  </si>
+  <si>
+    <t>Merken</t>
+  </si>
+  <si>
+    <t>SE422</t>
+  </si>
+  <si>
+    <t>SE422_oral_2</t>
+  </si>
+  <si>
+    <t>TN423</t>
+  </si>
+  <si>
+    <t>BHK=navy</t>
+  </si>
+  <si>
+    <t>TP424</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>DS425</t>
+  </si>
+  <si>
+    <t>SE426</t>
+  </si>
+  <si>
+    <t>SE422_written</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>SE422_oral_1</t>
-  </si>
-  <si>
-    <t>Merken</t>
-  </si>
-  <si>
-    <t>SE422</t>
-  </si>
-  <si>
-    <t>SE422_oral_2</t>
-  </si>
-  <si>
-    <t>TN423</t>
-  </si>
-  <si>
-    <t>BHK=navy</t>
-  </si>
-  <si>
-    <t>TP424</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>DS425</t>
-  </si>
-  <si>
-    <t>SE426</t>
-  </si>
-  <si>
-    <t>SE422_written</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Unavailability</t>
-  </si>
-  <si>
     <t>cours de smeuh 1</t>
   </si>
   <si>
-    <t>13; 14;15</t>
+    <t>Pas cours</t>
+  </si>
+  <si>
+    <t>157SSMW</t>
   </si>
   <si>
     <t>BHK=N</t>
@@ -122,31 +119,19 @@
     <t>cours de smeuh 2</t>
   </si>
   <si>
-    <t>30-&gt;2;   11 -&gt; 15</t>
-  </si>
-  <si>
     <t>BHK=F</t>
   </si>
   <si>
     <t>Teuf 1</t>
   </si>
   <si>
-    <t>1-&gt;10;18;19</t>
-  </si>
-  <si>
     <t>Teuf 2</t>
   </si>
   <si>
-    <t>19;20</t>
-  </si>
-  <si>
     <t>Teuf 3</t>
   </si>
   <si>
     <t>gueule de bois</t>
-  </si>
-  <si>
-    <t>17-&gt;20</t>
   </si>
   <si>
     <t>Soirée Coaster</t>
@@ -176,7 +161,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1618575011" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619371127" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -191,7 +176,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1618575011" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619371127" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -213,7 +198,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1618575011" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1619371127" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -224,7 +209,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1618575011" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1619371127" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -246,7 +231,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618575011"/>
+          <pm:border xmlns:pm="smNativeData" id="1619371127"/>
         </ext>
       </extLst>
     </border>
@@ -265,7 +250,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618575011"/>
+          <pm:border xmlns:pm="smNativeData" id="1619371127"/>
         </ext>
       </extLst>
     </border>
@@ -284,7 +269,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1618575011"/>
+          <pm:border xmlns:pm="smNativeData" id="1619371127"/>
         </ext>
       </extLst>
     </border>
@@ -306,10 +291,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1618575011" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1619371127" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1618575011" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1619371127" count="2">
         <pm:color name="Color 24" rgb="E26B0A"/>
         <pm:color name="Color 25" rgb="C2D69A"/>
       </pm:colors>
@@ -319,40 +304,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:K9" totalsRowShown="0">
-  <autoFilter ref="A1:K9"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Professor"/>
     <tableColumn id="3" name="Amount days"/>
     <tableColumn id="4" name="preparation days"/>
     <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotions"/>
+    <tableColumn id="6" name="Promotion"/>
     <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="start date"/>
-    <tableColumn id="9" name="final date"/>
-    <tableColumn id="10" name="Course group"/>
-    <tableColumn id="11" name="is weekend ok?" totalsRowFunction="sum"/>
+    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:K8" totalsRowShown="0">
-  <autoFilter ref="A1:K8"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:H8" totalsRowShown="0">
+  <autoFilter ref="A1:H8"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Unavailability"/>
+    <tableColumn id="2" name="Professor"/>
     <tableColumn id="3" name="Amount days"/>
     <tableColumn id="4" name="preparation days"/>
     <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotions"/>
+    <tableColumn id="6" name="Promotion"/>
     <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="start date"/>
-    <tableColumn id="9" name="final date"/>
-    <tableColumn id="10" name="Course group"/>
-    <tableColumn id="11" name="is weekend ok?" totalsRowFunction="sum"/>
+    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -614,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
@@ -628,12 +607,10 @@
     <col min="4" max="4" width="22.330357" customWidth="1"/>
     <col min="5" max="6" width="15.330357" customWidth="1"/>
     <col min="7" max="7" width="17.883929" customWidth="1"/>
-    <col min="8" max="8" width="11.214286" customWidth="1"/>
-    <col min="10" max="10" width="14.330357" customWidth="1"/>
-    <col min="11" max="11" width="23.330357" customWidth="1"/>
+    <col min="8" max="8" width="14.330357" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,53 +635,37 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="n">
-        <v>172</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>44346</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>44367</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -713,24 +674,21 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n">
-        <v>172</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -739,23 +697,22 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>172</v>
-      </c>
-      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
@@ -763,44 +720,42 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="n">
-        <v>172</v>
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>172</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
@@ -808,43 +763,39 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>172</v>
-      </c>
-      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>172</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
@@ -852,51 +803,45 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="n">
-        <v>172</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation sqref="E2:E9" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>$A$37:$A$38</formula1>
-    </dataValidation>
-    <dataValidation sqref="K2:K9" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
-      <formula1>$A$35:$A$36</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1618575011" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619371127" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -905,8 +850,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1618575011" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1618575011" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -915,7 +860,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618575011" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619371127" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -926,28 +871,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="N6" sqref="N1:N6"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
   <cols>
     <col min="1" max="1" width="24.000000" customWidth="1"/>
-    <col min="2" max="2" width="16.553571" customWidth="1"/>
+    <col min="2" max="2" width="22.062500" customWidth="1"/>
     <col min="3" max="3" width="15.214286" customWidth="1"/>
-    <col min="4" max="4" width="15.553571" customWidth="1"/>
+    <col min="4" max="4" width="19.625000" customWidth="1"/>
+    <col min="5" max="5" width="18.794643" customWidth="1"/>
+    <col min="6" max="6" width="14.857143" customWidth="1"/>
     <col min="7" max="7" width="16.776786" customWidth="1"/>
-    <col min="14" max="14" width="17.660714" customWidth="1"/>
+    <col min="8" max="8" width="17.616071" customWidth="1"/>
+    <col min="11" max="11" width="17.660714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -967,56 +915,38 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n">
-        <v>157</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>44346</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>44367</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1025,24 +955,21 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="n">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1051,24 +978,21 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1077,24 +1001,21 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>157</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1103,21 +1024,18 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>157</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1126,21 +1044,18 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="n">
-        <v>157</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1149,48 +1064,42 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>157</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation sqref="E2:E8" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>$A$31:$A$32</formula1>
-    </dataValidation>
-    <dataValidation sqref="K2:K8" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
-      <formula1>$A$29:$A$30</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1618575011" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619371127" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1199,8 +1108,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1618575011" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1618575011" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -1209,7 +1118,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1618575011" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619371127" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -1,18 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="sputnik"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laris\OneDrive\Documents\ERM\1Ma2Sem\DS425 - (6) AI Decision support\PROJECT1\ExamTimetable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45759B41-5A4C-4B81-B5BB-AB530235CF7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="23246" windowHeight="12578" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="172 POL" sheetId="1" r:id="rId4"/>
-    <sheet name="157 SSMW" sheetId="2" r:id="rId5"/>
+    <sheet name="172 POL" sheetId="1" r:id="rId1"/>
+    <sheet name="171 POL" sheetId="3" r:id="rId2"/>
+    <sheet name="157 SSMW" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1619371127" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
       <pm:docPrefs xmlns:pm="smNativeData" id="1619371127" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
@@ -24,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -104,192 +119,122 @@
     <t>no</t>
   </si>
   <si>
-    <t>cours de smeuh 1</t>
-  </si>
-  <si>
-    <t>Pas cours</t>
-  </si>
-  <si>
     <t>157SSMW</t>
   </si>
   <si>
     <t>BHK=N</t>
   </si>
   <si>
-    <t>cours de smeuh 2</t>
-  </si>
-  <si>
     <t>BHK=F</t>
   </si>
   <si>
-    <t>Teuf 1</t>
-  </si>
-  <si>
-    <t>Teuf 2</t>
-  </si>
-  <si>
-    <t>Teuf 3</t>
-  </si>
-  <si>
-    <t>gueule de bois</t>
-  </si>
-  <si>
-    <t>Soirée Coaster</t>
+    <t>Galant</t>
+  </si>
+  <si>
+    <t>Scheers</t>
+  </si>
+  <si>
+    <t>Coghe</t>
+  </si>
+  <si>
+    <t>Muls</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
+    <t>Droit 1</t>
+  </si>
+  <si>
+    <t>Droit 2</t>
+  </si>
+  <si>
+    <t>Histoire</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>Sociologie</t>
+  </si>
+  <si>
+    <t>Prof d'histoire</t>
+  </si>
+  <si>
+    <t>Prof de droit</t>
+  </si>
+  <si>
+    <t>Cours NEC</t>
+  </si>
+  <si>
+    <t>Cours SMP</t>
+  </si>
+  <si>
+    <t>171POL</t>
+  </si>
+  <si>
+    <t>BHK=nec</t>
+  </si>
+  <si>
+    <t>BHK=smp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="20" formatCode="h:mm"/>
-    <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="h:mm"/>
+    <numFmt numFmtId="173" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619371127" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619371127" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1619371127" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1619371127" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619371127"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619371127"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619371127"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="1" hidden="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1619371127" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
@@ -304,34 +249,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0">
-  <autoFilter ref="A1:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Professor"/>
-    <tableColumn id="3" name="Amount days"/>
-    <tableColumn id="4" name="preparation days"/>
-    <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotion"/>
-    <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Professor"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Promotion"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:H8" totalsRowShown="0">
-  <autoFilter ref="A1:H8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B958F613-6621-406F-9AED-997C389B7D86}" name="Tableau15" displayName="Tableau15" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{06DF716D-EAEF-40CA-A46D-C55961793EBD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Professor"/>
-    <tableColumn id="3" name="Amount days"/>
-    <tableColumn id="4" name="preparation days"/>
-    <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotion"/>
-    <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{F68C0316-EC12-4BB7-B12E-0F7CB59FE8C2}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{857ACE50-AD32-4248-8EF3-10B3AC420DA7}" name="Professor"/>
+    <tableColumn id="3" xr3:uid="{702EA03C-44C2-4DDE-B597-B06A2997D997}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{604C23CA-11C4-4CBF-AFBD-F6AEDB8A167E}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{8DFBC1CE-E2DF-4EEB-BA78-B19D5FE62564}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{417559FD-4C1E-4F6E-8000-27B6613F637A}" name="Promotion"/>
+    <tableColumn id="7" xr3:uid="{62DD3683-7D3B-414D-A7B2-6DE98B5DB8AC}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{7C8226CB-759B-486D-A05A-8C3742BA2925}" name="Course group" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Professor"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Promotion"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,25 +554,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.776786" customWidth="1"/>
-    <col min="2" max="2" width="16.437500" customWidth="1"/>
-    <col min="3" max="3" width="18.107143" customWidth="1"/>
-    <col min="4" max="4" width="22.330357" customWidth="1"/>
-    <col min="5" max="6" width="15.330357" customWidth="1"/>
-    <col min="7" max="7" width="17.883929" customWidth="1"/>
-    <col min="8" max="8" width="14.330357" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,17 +598,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -660,17 +622,17 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -683,17 +645,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -706,17 +668,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
@@ -729,17 +691,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -749,17 +711,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -769,17 +731,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
@@ -789,17 +751,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
@@ -812,49 +774,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="E2:E9" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$37:$A$38</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619371127" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -870,27 +817,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B85FAA-7521-4D32-80E7-BEE49E473068}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
-  <cols>
-    <col min="1" max="1" width="24.000000" customWidth="1"/>
-    <col min="2" max="2" width="22.062500" customWidth="1"/>
-    <col min="3" max="3" width="15.214286" customWidth="1"/>
-    <col min="4" max="4" width="19.625000" customWidth="1"/>
-    <col min="5" max="5" width="18.794643" customWidth="1"/>
-    <col min="6" max="6" width="14.857143" customWidth="1"/>
-    <col min="7" max="7" width="16.776786" customWidth="1"/>
-    <col min="8" max="8" width="17.616071" customWidth="1"/>
-    <col min="11" max="11" width="17.660714" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -916,203 +852,255 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="E2:E8" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{B3746578-9B4E-4902-89B3-AE6D7E1A8591}">
       <formula1>$A$31:$A$32</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619371127" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>$A$29:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="sputnik"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="23246" windowHeight="12578" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="23246" windowHeight="12578" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="172 POL" sheetId="1" r:id="rId4"/>
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1619371127" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1619371127" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1619371127" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1619371127"/>
+      <pm:revision xmlns:pm="smNativeData" day="1619802990" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1619802990" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1619802990" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1619802990"/>
     </ext>
   </extLst>
 </workbook>
@@ -161,7 +161,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619371127" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619802990" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -176,7 +176,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619371127" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619802990" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -198,7 +198,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1619371127" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1619802990" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -209,7 +209,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1619371127" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1619802990" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -231,7 +231,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619371127"/>
+          <pm:border xmlns:pm="smNativeData" id="1619802990"/>
         </ext>
       </extLst>
     </border>
@@ -250,7 +250,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619371127"/>
+          <pm:border xmlns:pm="smNativeData" id="1619802990"/>
         </ext>
       </extLst>
     </border>
@@ -269,7 +269,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619371127"/>
+          <pm:border xmlns:pm="smNativeData" id="1619802990"/>
         </ext>
       </extLst>
     </border>
@@ -291,10 +291,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1619371127" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1619802990" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1619371127" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1619802990" count="2">
         <pm:color name="Color 24" rgb="E26B0A"/>
         <pm:color name="Color 25" rgb="C2D69A"/>
       </pm:colors>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
@@ -610,7 +610,7 @@
     <col min="8" max="8" width="14.330357" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -660,7 +660,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -691,7 +691,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -729,7 +729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -749,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -769,7 +769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -789,7 +789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -841,7 +841,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619371127" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619802990" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -850,8 +850,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1619802990" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619802990" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -860,7 +860,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619371127" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619802990" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -871,9 +871,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
@@ -890,7 +890,7 @@
     <col min="11" max="11" width="17.660714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="H2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -964,7 +964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -987,7 +987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1099,7 +1099,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619371127" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619802990" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1108,8 +1108,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619371127" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1619802990" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619802990" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -1118,7 +1118,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619371127" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619802990" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laris\OneDrive\Documents\ERM\1Ma2Sem\DS425 - (6) AI Decision support\PROJECT1\ExamTimetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\ERM\1Ma\DS425_E\Practicals_work\Projects\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45759B41-5A4C-4B81-B5BB-AB530235CF7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDF535-4597-465E-84A7-8BA6A3B482AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5292" yWindow="2616" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="172 POL" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>SE422_written</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>157SSMW</t>
@@ -184,8 +178,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="h:mm"/>
-    <numFmt numFmtId="173" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="h:mm"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -217,11 +211,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -557,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -673,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -696,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -736,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -774,25 +768,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -820,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B85FAA-7521-4D32-80E7-BEE49E473068}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -854,10 +834,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -869,19 +849,19 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -893,10 +873,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -916,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,10 +941,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -976,20 +956,20 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1001,18 +981,18 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1024,18 +1004,18 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1047,18 +1027,18 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1070,28 +1050,14 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -1,38 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="sputnik"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\ERM\1Ma\DS425_E\Practicals_work\Projects\ExamTimetable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDF535-4597-465E-84A7-8BA6A3B482AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="2616" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="17280" windowHeight="8963" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="172 POL" sheetId="1" r:id="rId1"/>
-    <sheet name="171 POL" sheetId="3" r:id="rId2"/>
-    <sheet name="157 SSMW" sheetId="2" r:id="rId3"/>
+    <sheet name="172 POL" sheetId="1" r:id="rId4"/>
+    <sheet name="171 POL" sheetId="2" r:id="rId5"/>
+    <sheet name="157 SSMW" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1619371127" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1619371127" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1619371127" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1619371127"/>
+      <pm:revision xmlns:pm="smNativeData" day="1619952852" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1619952852" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1619952852" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1619952852"/>
     </ext>
   </extLst>
 </workbook>
@@ -68,226 +54,319 @@
     <t>WA421</t>
   </si>
   <si>
+    <t>Galant</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>172POL</t>
+  </si>
+  <si>
+    <t>BHK=pilot</t>
+  </si>
+  <si>
+    <t>SE422_oral_1</t>
+  </si>
+  <si>
+    <t>Merken</t>
+  </si>
+  <si>
+    <t>SE422</t>
+  </si>
+  <si>
+    <t>SE422_oral_2</t>
+  </si>
+  <si>
+    <t>TN423</t>
+  </si>
+  <si>
+    <t>Scheers</t>
+  </si>
+  <si>
+    <t>BHK=navy</t>
+  </si>
+  <si>
+    <t>TP424</t>
+  </si>
+  <si>
+    <t>Coghe</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>DS425</t>
+  </si>
+  <si>
     <t>Van Utterbeek</t>
   </si>
   <si>
-    <t>oral</t>
-  </si>
-  <si>
-    <t>172POL</t>
-  </si>
-  <si>
-    <t>BHK=pilot</t>
-  </si>
-  <si>
-    <t>SE422_oral_1</t>
-  </si>
-  <si>
-    <t>Merken</t>
-  </si>
-  <si>
-    <t>SE422</t>
-  </si>
-  <si>
-    <t>SE422_oral_2</t>
-  </si>
-  <si>
-    <t>TN423</t>
-  </si>
-  <si>
-    <t>BHK=navy</t>
-  </si>
-  <si>
-    <t>TP424</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>DS425</t>
-  </si>
-  <si>
     <t>SE426</t>
   </si>
   <si>
+    <t>Muls</t>
+  </si>
+  <si>
     <t>SE422_written</t>
   </si>
   <si>
+    <t>Cours NEC</t>
+  </si>
+  <si>
+    <t>171POL</t>
+  </si>
+  <si>
+    <t>BHK=nec</t>
+  </si>
+  <si>
+    <t>Cours SMP</t>
+  </si>
+  <si>
+    <t>BHK=smp</t>
+  </si>
+  <si>
+    <t>Telecom</t>
+  </si>
+  <si>
     <t>157SSMW</t>
   </si>
   <si>
     <t>BHK=N</t>
   </si>
   <si>
+    <t>Droit 1</t>
+  </si>
+  <si>
+    <t>Prof de droit</t>
+  </si>
+  <si>
     <t>BHK=F</t>
   </si>
   <si>
-    <t>Galant</t>
-  </si>
-  <si>
-    <t>Scheers</t>
-  </si>
-  <si>
-    <t>Coghe</t>
-  </si>
-  <si>
-    <t>Muls</t>
-  </si>
-  <si>
-    <t>Telecom</t>
-  </si>
-  <si>
-    <t>Droit 1</t>
-  </si>
-  <si>
     <t>Droit 2</t>
   </si>
   <si>
     <t>Histoire</t>
   </si>
   <si>
+    <t>Prof d'histoire</t>
+  </si>
+  <si>
+    <t>Sociologie</t>
+  </si>
+  <si>
     <t>Alexandre</t>
-  </si>
-  <si>
-    <t>Sociologie</t>
-  </si>
-  <si>
-    <t>Prof d'histoire</t>
-  </si>
-  <si>
-    <t>Prof de droit</t>
-  </si>
-  <si>
-    <t>Cours NEC</t>
-  </si>
-  <si>
-    <t>Cours SMP</t>
-  </si>
-  <si>
-    <t>171POL</t>
-  </si>
-  <si>
-    <t>BHK=nec</t>
-  </si>
-  <si>
-    <t>BHK=smp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="h:mm"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="10">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="20" formatCode="h:mm"/>
+    <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619952852" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Basic Sans"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619952852" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1619952852" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1619952852" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1619952852"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1619952852"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1619952852"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1619371127" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1619952852" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1619371127" count="2">
-        <pm:color name="Color 24" rgb="E26B0A"/>
-        <pm:color name="Color 25" rgb="C2D69A"/>
-      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0">
-  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Professor"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Amount days"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="preparation days"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="oral/written"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Promotion"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Student groups"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Professor"/>
+    <tableColumn id="3" name="Amount days"/>
+    <tableColumn id="4" name="preparation days"/>
+    <tableColumn id="5" name="oral/written"/>
+    <tableColumn id="6" name="Promotion"/>
+    <tableColumn id="7" name="Student groups"/>
+    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B958F613-6621-406F-9AED-997C389B7D86}" name="Tableau15" displayName="Tableau15" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{06DF716D-EAEF-40CA-A46D-C55961793EBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau15" displayName="Tableau15" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F68C0316-EC12-4BB7-B12E-0F7CB59FE8C2}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{857ACE50-AD32-4248-8EF3-10B3AC420DA7}" name="Professor"/>
-    <tableColumn id="3" xr3:uid="{702EA03C-44C2-4DDE-B597-B06A2997D997}" name="Amount days"/>
-    <tableColumn id="4" xr3:uid="{604C23CA-11C4-4CBF-AFBD-F6AEDB8A167E}" name="preparation days"/>
-    <tableColumn id="5" xr3:uid="{8DFBC1CE-E2DF-4EEB-BA78-B19D5FE62564}" name="oral/written"/>
-    <tableColumn id="6" xr3:uid="{417559FD-4C1E-4F6E-8000-27B6613F637A}" name="Promotion"/>
-    <tableColumn id="7" xr3:uid="{62DD3683-7D3B-414D-A7B2-6DE98B5DB8AC}" name="Student groups"/>
-    <tableColumn id="8" xr3:uid="{7C8226CB-759B-486D-A05A-8C3742BA2925}" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Professor"/>
+    <tableColumn id="3" name="Amount days"/>
+    <tableColumn id="4" name="preparation days"/>
+    <tableColumn id="5" name="oral/written"/>
+    <tableColumn id="6" name="Promotion"/>
+    <tableColumn id="7" name="Student groups"/>
+    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Professor"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Amount days"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="preparation days"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="oral/written"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Promotion"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Student groups"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Professor"/>
+    <tableColumn id="3" name="Amount days"/>
+    <tableColumn id="4" name="preparation days"/>
+    <tableColumn id="5" name="oral/written"/>
+    <tableColumn id="6" name="Promotion"/>
+    <tableColumn id="7" name="Student groups"/>
+    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,25 +627,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.776786" customWidth="1"/>
+    <col min="2" max="2" width="16.437500" customWidth="1"/>
+    <col min="3" max="3" width="18.107143" customWidth="1"/>
+    <col min="4" max="4" width="22.330357" customWidth="1"/>
+    <col min="5" max="6" width="15.330357" customWidth="1"/>
+    <col min="7" max="7" width="17.883929" customWidth="1"/>
+    <col min="8" max="8" width="14.330357" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,17 +671,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -616,17 +695,17 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -639,17 +718,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -662,17 +741,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="s">
@@ -682,40 +761,40 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -725,41 +804,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -768,26 +847,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation sqref="E2:E9" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>$A$37:$A$38</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619952852" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619371127" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619952852" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -797,16 +891,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B85FAA-7521-4D32-80E7-BEE49E473068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.651786" defaultRowHeight="15.40"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -832,247 +926,286 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{B3746578-9B4E-4902-89B3-AE6D7E1A8591}">
+    <dataValidation sqref="E2:E3" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>$A$31:$A$32</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>$A$29:$A$30</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619952852" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619371127" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619952852" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
+  <cols>
+    <col min="1" max="1" width="24.000000" customWidth="1"/>
+    <col min="2" max="2" width="22.107143" customWidth="1"/>
+    <col min="3" max="3" width="15.214286" customWidth="1"/>
+    <col min="4" max="4" width="19.660714" customWidth="1"/>
+    <col min="5" max="5" width="18.776786" customWidth="1"/>
+    <col min="6" max="6" width="14.883929" customWidth="1"/>
+    <col min="7" max="7" width="16.776786" customWidth="1"/>
+    <col min="8" max="8" width="17.660714" customWidth="1"/>
+    <col min="11" max="11" width="17.660714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="E2:E6" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>$A$29:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619952852" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619952852" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="sputnik"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laris\OneDrive\Documents\ERM\1Ma2Sem\DS425 - (6) AI Decision support\PROJECT1\ExamTimetable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D417A81-8B8D-4AFD-BBB7-969565EEEDC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="17280" windowHeight="8963" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="172 POL" sheetId="1" r:id="rId4"/>
-    <sheet name="171 POL" sheetId="2" r:id="rId5"/>
-    <sheet name="157 SSMW" sheetId="3" r:id="rId6"/>
+    <sheet name="172 POL" sheetId="1" r:id="rId1"/>
+    <sheet name="171 POL" sheetId="2" r:id="rId2"/>
+    <sheet name="157 SSMW" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1619952852" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -157,161 +162,82 @@
   </si>
   <si>
     <t>Alexandre</t>
+  </si>
+  <si>
+    <t>173POL</t>
+  </si>
+  <si>
+    <t>174POL</t>
+  </si>
+  <si>
+    <t>175POL</t>
+  </si>
+  <si>
+    <t>158SSMW</t>
+  </si>
+  <si>
+    <t>159SSMW</t>
+  </si>
+  <si>
+    <t>160SSMW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="20" formatCode="h:mm"/>
-    <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="h:mm"/>
+    <numFmt numFmtId="173" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619952852" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619952852" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1619952852" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1619952852" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619952852"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619952852"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619952852"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="1" hidden="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1619952852" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
@@ -322,51 +248,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0">
-  <autoFilter ref="A1:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Professor"/>
-    <tableColumn id="3" name="Amount days"/>
-    <tableColumn id="4" name="preparation days"/>
-    <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotion"/>
-    <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Professor"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Promotion"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau15" displayName="Tableau15" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau15" displayName="Tableau15" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Professor"/>
-    <tableColumn id="3" name="Amount days"/>
-    <tableColumn id="4" name="preparation days"/>
-    <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotion"/>
-    <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Professor"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Promotion"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Professor"/>
-    <tableColumn id="3" name="Amount days"/>
-    <tableColumn id="4" name="preparation days"/>
-    <tableColumn id="5" name="oral/written"/>
-    <tableColumn id="6" name="Promotion"/>
-    <tableColumn id="7" name="Student groups"/>
-    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Professor"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Amount days"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="preparation days"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="oral/written"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Promotion"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Student groups"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -627,25 +553,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.776786" customWidth="1"/>
-    <col min="2" max="2" width="16.437500" customWidth="1"/>
-    <col min="3" max="3" width="18.107143" customWidth="1"/>
-    <col min="4" max="4" width="22.330357" customWidth="1"/>
-    <col min="5" max="6" width="15.330357" customWidth="1"/>
-    <col min="7" max="7" width="17.883929" customWidth="1"/>
-    <col min="8" max="8" width="14.330357" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,18 +597,27 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -694,18 +630,27 @@
         <v>12</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -717,18 +662,24 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -740,18 +691,24 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
@@ -763,18 +720,24 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -783,18 +746,24 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -803,18 +772,24 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
@@ -823,18 +798,24 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
@@ -846,36 +827,33 @@
       <c r="H9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="E2:E9" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
-      <formula1>$A$37:$A$38</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{364CAEA8-901C-41E8-9B4B-7EE996670A70}">
+      <formula1>$K$1:$K$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{AEFEAE17-1071-478A-BF45-9DB1A2C410E1}">
+      <formula1>$L$1:$L$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{CB42972D-8A59-49A5-AB17-72C31E2FE412}">
+      <formula1>$M$1:$M$9</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619952852" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -891,16 +869,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.651786" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -926,17 +904,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
@@ -950,17 +928,17 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -974,32 +952,34 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="E2:E3" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
-      <formula1>$A$31:$A$32</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619952852" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DEB61555-3D93-4068-9C0D-AA0F40E266CF}">
+          <x14:formula1>
+            <xm:f>'172 POL'!$L$1:$L$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACCA10C1-0D2B-4210-B945-E6AEB908AA44}">
+          <x14:formula1>
+            <xm:f>'172 POL'!$K$1:$K$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE439F76-F3BC-45B1-87DB-066589DC44F1}">
+          <x14:formula1>
+            <xm:f>'172 POL'!$M$1:$M$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1619952852" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -1011,27 +991,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.000000" customWidth="1"/>
-    <col min="2" max="2" width="22.107143" customWidth="1"/>
-    <col min="3" max="3" width="15.214286" customWidth="1"/>
-    <col min="4" max="4" width="19.660714" customWidth="1"/>
-    <col min="5" max="5" width="18.776786" customWidth="1"/>
-    <col min="6" max="6" width="14.883929" customWidth="1"/>
-    <col min="7" max="7" width="16.776786" customWidth="1"/>
-    <col min="8" max="8" width="17.660714" customWidth="1"/>
-    <col min="11" max="11" width="17.660714" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,17 +1037,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -1082,17 +1062,17 @@
       <c r="H2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -1105,17 +1085,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
@@ -1128,17 +1108,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -1151,17 +1131,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
@@ -1171,39 +1151,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="E2:E6" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
-      <formula1>$A$29:$A$30</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619952852" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619952852" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41870913-E49E-4819-90BA-B3EC48F5D010}">
+          <x14:formula1>
+            <xm:f>'172 POL'!$K$1:$K$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F783140-D16A-4F07-AF0E-5BC865CF499F}">
+          <x14:formula1>
+            <xm:f>'172 POL'!$L$1:$L$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8957D233-0DF6-49EE-8AF2-27CB1141A134}">
+          <x14:formula1>
+            <xm:f>'172 POL'!$M$1:$M$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1619952852" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laris\OneDrive\Documents\ERM\1Ma2Sem\DS425 - (6) AI Decision support\PROJECT1\ExamTimetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simplex\Documents\ERM\1Ma\sem2\DS425_E\ProjetHoraireExam\ExamTimetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D417A81-8B8D-4AFD-BBB7-969565EEEDC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899CDBC4-9DE2-4218-AABC-28FC81282416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="172 POL" sheetId="1" r:id="rId1"/>
@@ -187,8 +187,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="h:mm"/>
-    <numFmt numFmtId="173" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="h:mm"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -220,11 +220,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,13 +842,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{364CAEA8-901C-41E8-9B4B-7EE996670A70}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{364CAEA8-901C-41E8-9B4B-7EE996670A70}">
       <formula1>$K$1:$K$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{AEFEAE17-1071-478A-BF45-9DB1A2C410E1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{AEFEAE17-1071-478A-BF45-9DB1A2C410E1}">
       <formula1>$L$1:$L$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{CB42972D-8A59-49A5-AB17-72C31E2FE412}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{CB42972D-8A59-49A5-AB17-72C31E2FE412}">
       <formula1>$M$1:$M$9</formula1>
     </dataValidation>
   </dataValidations>

--- a/examparams.xlsx
+++ b/examparams.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="sputnik"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simplex\Documents\ERM\1Ma\sem2\DS425_E\ProjetHoraireExam\ExamTimetable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899CDBC4-9DE2-4218-AABC-28FC81282416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="23260" windowHeight="12578" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="172 POL" sheetId="1" r:id="rId1"/>
-    <sheet name="171 POL" sheetId="2" r:id="rId2"/>
-    <sheet name="157 SSMW" sheetId="3" r:id="rId3"/>
+    <sheet name="172 POL" sheetId="1" r:id="rId4"/>
+    <sheet name="171 POL" sheetId="2" r:id="rId5"/>
+    <sheet name="157 SSMW" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1619952852" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1619952852" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1619952852" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1619952852"/>
+      <pm:revision xmlns:pm="smNativeData" day="1619966460" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1619966460" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1619966460" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1619966460"/>
     </ext>
   </extLst>
 </workbook>
@@ -56,33 +51,51 @@
     <t>Course group</t>
   </si>
   <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>171POL</t>
+  </si>
+  <si>
+    <t>Coghe</t>
+  </si>
+  <si>
     <t>WA421</t>
   </si>
   <si>
     <t>Galant</t>
   </si>
   <si>
-    <t>oral</t>
-  </si>
-  <si>
     <t>172POL</t>
   </si>
   <si>
     <t>BHK=pilot</t>
   </si>
   <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>Merken</t>
+  </si>
+  <si>
     <t>SE422_oral_1</t>
   </si>
   <si>
-    <t>Merken</t>
-  </si>
-  <si>
     <t>SE422</t>
   </si>
   <si>
+    <t>173POL</t>
+  </si>
+  <si>
+    <t>Muls</t>
+  </si>
+  <si>
     <t>SE422_oral_2</t>
   </si>
   <si>
+    <t>174POL</t>
+  </si>
+  <si>
     <t>TN423</t>
   </si>
   <si>
@@ -92,36 +105,48 @@
     <t>BHK=navy</t>
   </si>
   <si>
+    <t>175POL</t>
+  </si>
+  <si>
     <t>TP424</t>
   </si>
   <si>
-    <t>Coghe</t>
-  </si>
-  <si>
-    <t>written</t>
+    <t>157SSMW</t>
+  </si>
+  <si>
+    <t>Van Utterbeek</t>
   </si>
   <si>
     <t>DS425</t>
   </si>
   <si>
-    <t>Van Utterbeek</t>
+    <t>158SSMW</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
   </si>
   <si>
     <t>SE426</t>
   </si>
   <si>
-    <t>Muls</t>
+    <t>159SSMW</t>
+  </si>
+  <si>
+    <t>Prof de droit</t>
   </si>
   <si>
     <t>SE422_written</t>
   </si>
   <si>
+    <t>160SSMW</t>
+  </si>
+  <si>
+    <t>Prof d'histoire</t>
+  </si>
+  <si>
     <t>Cours NEC</t>
   </si>
   <si>
-    <t>171POL</t>
-  </si>
-  <si>
     <t>BHK=nec</t>
   </si>
   <si>
@@ -134,18 +159,12 @@
     <t>Telecom</t>
   </si>
   <si>
-    <t>157SSMW</t>
-  </si>
-  <si>
     <t>BHK=N</t>
   </si>
   <si>
     <t>Droit 1</t>
   </si>
   <si>
-    <t>Prof de droit</t>
-  </si>
-  <si>
     <t>BHK=F</t>
   </si>
   <si>
@@ -155,91 +174,164 @@
     <t>Histoire</t>
   </si>
   <si>
-    <t>Prof d'histoire</t>
-  </si>
-  <si>
     <t>Sociologie</t>
-  </si>
-  <si>
-    <t>Alexandre</t>
-  </si>
-  <si>
-    <t>173POL</t>
-  </si>
-  <si>
-    <t>174POL</t>
-  </si>
-  <si>
-    <t>175POL</t>
-  </si>
-  <si>
-    <t>158SSMW</t>
-  </si>
-  <si>
-    <t>159SSMW</t>
-  </si>
-  <si>
-    <t>160SSMW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="h:mm"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="10">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
+    <numFmt numFmtId="20" formatCode="h:mm"/>
+    <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619966460" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Basic Sans"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1619966460" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1619966460" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1619966460" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1619966460"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1619966460"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1619966460"/>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1619952852" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1619966460" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -248,51 +340,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0">
-  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Professor"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Amount days"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="preparation days"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="oral/written"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Promotion"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Student groups"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Professor"/>
+    <tableColumn id="3" name="Amount days"/>
+    <tableColumn id="4" name="preparation days"/>
+    <tableColumn id="5" name="oral/written"/>
+    <tableColumn id="6" name="Promotion"/>
+    <tableColumn id="7" name="Student groups"/>
+    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau15" displayName="Tableau15" ref="A1:H3" totalsRowShown="0">
-  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau15" displayName="Tableau15" ref="A1:H3" totalsRowShown="0">
+  <autoFilter ref="A1:H3"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Professor"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Amount days"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="preparation days"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="oral/written"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Promotion"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Student groups"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Professor"/>
+    <tableColumn id="3" name="Amount days"/>
+    <tableColumn id="4" name="preparation days"/>
+    <tableColumn id="5" name="oral/written"/>
+    <tableColumn id="6" name="Promotion"/>
+    <tableColumn id="7" name="Student groups"/>
+    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Professor"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Amount days"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="preparation days"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="oral/written"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Promotion"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Student groups"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Course group" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="Name" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Professor"/>
+    <tableColumn id="3" name="Amount days"/>
+    <tableColumn id="4" name="preparation days"/>
+    <tableColumn id="5" name="oral/written"/>
+    <tableColumn id="6" name="Promotion"/>
+    <tableColumn id="7" name="Student groups"/>
+    <tableColumn id="8" name="Course group" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,26 +645,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.776786" customWidth="1"/>
+    <col min="2" max="2" width="16.437500" customWidth="1"/>
+    <col min="3" max="3" width="18.107143" customWidth="1"/>
+    <col min="4" max="4" width="22.330357" customWidth="1"/>
+    <col min="5" max="6" width="15.330357" customWidth="1"/>
+    <col min="7" max="7" width="17.883929" customWidth="1"/>
+    <col min="8" max="8" width="14.330357" customWidth="1"/>
+    <col min="11" max="13" width="10.660714" hidden="1">
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:columnDef xmlns:pm="smNativeData" id="1619966460" min="11" max="13" hidden="1" collapsedDB="0" collapsedOL="0"/>
+        </ext>
+      </extLst>
+    </col>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,268 +696,283 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3"/>
       <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
-      </c>
       <c r="M9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{364CAEA8-901C-41E8-9B4B-7EE996670A70}">
+    <dataValidation sqref="B2:B1048576" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>$M$1:$M$9</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>$K$1:$K$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{AEFEAE17-1071-478A-BF45-9DB1A2C410E1}">
+    <dataValidation sqref="F2:F1048576" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>$L$1:$L$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{CB42972D-8A59-49A5-AB17-72C31E2FE412}">
-      <formula1>$M$1:$M$9</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619966460" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1619966460" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619966460" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619952852" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619966460" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -869,16 +982,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,84 +1017,88 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
+  <dataValidations count="3">
+    <dataValidation sqref="B1:B1048576" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>'172 POL'!$M$1:$M$9</formula1>
+    </dataValidation>
+    <dataValidation sqref="E1:E1048576" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>'172 POL'!$K$1:$K$2</formula1>
+    </dataValidation>
+    <dataValidation sqref="F1:F1048576" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>'172 POL'!$L$1:$L$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619966460" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1619966460" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619966460" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DEB61555-3D93-4068-9C0D-AA0F40E266CF}">
-          <x14:formula1>
-            <xm:f>'172 POL'!$L$1:$L$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACCA10C1-0D2B-4210-B945-E6AEB908AA44}">
-          <x14:formula1>
-            <xm:f>'172 POL'!$K$1:$K$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE439F76-F3BC-45B1-87DB-066589DC44F1}">
-          <x14:formula1>
-            <xm:f>'172 POL'!$M$1:$M$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619952852" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619966460" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -991,27 +1108,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.660714" defaultRowHeight="15.40"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.000000" customWidth="1"/>
+    <col min="2" max="2" width="22.107143" customWidth="1"/>
+    <col min="3" max="3" width="15.214286" customWidth="1"/>
+    <col min="4" max="4" width="19.660714" customWidth="1"/>
+    <col min="5" max="5" width="18.776786" customWidth="1"/>
+    <col min="6" max="6" width="14.883929" customWidth="1"/>
+    <col min="7" max="7" width="16.776786" customWidth="1"/>
+    <col min="8" max="8" width="17.660714" customWidth="1"/>
+    <col min="11" max="11" width="17.660714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,157 +1154,161 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" pageOrder="overThenDown"/>
+  <dataValidations count="3">
+    <dataValidation sqref="B1:B1048576" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>'172 POL'!$M$1:$M$9</formula1>
+    </dataValidation>
+    <dataValidation sqref="E1:E1048576" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>'172 POL'!$K$1:$K$2</formula1>
+    </dataValidation>
+    <dataValidation sqref="F1:F1048576" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>'172 POL'!$L$1:$L$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1619966460" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1619966460" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1619966460" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41870913-E49E-4819-90BA-B3EC48F5D010}">
-          <x14:formula1>
-            <xm:f>'172 POL'!$K$1:$K$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F783140-D16A-4F07-AF0E-5BC865CF499F}">
-          <x14:formula1>
-            <xm:f>'172 POL'!$L$1:$L$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8957D233-0DF6-49EE-8AF2-27CB1141A134}">
-          <x14:formula1>
-            <xm:f>'172 POL'!$M$1:$M$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619952852" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619966460" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
